--- a/3_Component_Results/DOMUSE/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Q0</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -440,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,296 +474,320 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.7179190567705438</v>
+        <v>-1.726030308970723</v>
       </c>
       <c r="C2">
-        <v>-0.1422195177640508</v>
+        <v>-0.6707712956971672</v>
       </c>
       <c r="D2">
-        <v>0.9335203190881707</v>
+        <v>-0.4524812228389575</v>
       </c>
       <c r="E2">
-        <v>0.4917161477845549</v>
+        <v>0.6382515747836923</v>
       </c>
       <c r="F2">
-        <v>-0.3180566845390762</v>
+        <v>1.054974892958893</v>
       </c>
       <c r="G2">
-        <v>-0.03792523715326346</v>
+        <v>-0.5298079032524352</v>
       </c>
       <c r="H2">
-        <v>0.0009418280759485587</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.4174100604179617</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.07592864045537176</v>
+        <v>-0.5368479019170082</v>
       </c>
       <c r="C3">
-        <v>0.9998111963968498</v>
+        <v>-0.3185578290587984</v>
       </c>
       <c r="D3">
-        <v>0.558007025093234</v>
+        <v>0.7721749685638514</v>
       </c>
       <c r="E3">
-        <v>-0.2517658072303971</v>
+        <v>1.188898286739052</v>
       </c>
       <c r="F3">
-        <v>0.02836564015541562</v>
+        <v>-0.3958845094722762</v>
       </c>
       <c r="G3">
-        <v>0.06723270538462764</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.5513334541981209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.9380682398023569</v>
+        <v>-0.2429041502562597</v>
       </c>
       <c r="C4">
-        <v>0.4962640684987411</v>
+        <v>0.8478286473663901</v>
       </c>
       <c r="D4">
-        <v>-0.31350876382489</v>
+        <v>1.264551965541591</v>
       </c>
       <c r="E4">
-        <v>-0.0333773164390773</v>
+        <v>-0.3202308306697375</v>
       </c>
       <c r="F4">
-        <v>0.005489748790134724</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.6269871330006596</v>
+      </c>
+      <c r="G4">
+        <v>0.5472930368032309</v>
+      </c>
+      <c r="H4">
+        <v>0.2587483631461737</v>
+      </c>
+      <c r="I4">
+        <v>0.2492070382450521</v>
+      </c>
+      <c r="J4">
+        <v>-0.7701202119308102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>1.085047381394244</v>
+        <v>1.529711793429503</v>
       </c>
       <c r="C5">
-        <v>0.2752745490706132</v>
+        <v>1.946435111604704</v>
       </c>
       <c r="D5">
-        <v>0.555405996456426</v>
+        <v>0.3616523153933755</v>
       </c>
       <c r="E5">
-        <v>0.594273061685638</v>
+        <v>1.308870279063773</v>
       </c>
       <c r="F5">
-        <v>0.4855608485703982</v>
+        <v>1.229176182866344</v>
       </c>
       <c r="G5">
-        <v>0.6458112310448854</v>
+        <v>0.9406315092092867</v>
       </c>
       <c r="H5">
-        <v>0.5537593654304203</v>
+        <v>0.9310901843081651</v>
       </c>
       <c r="I5">
-        <v>0.3375522271518718</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>-0.0882370658676972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>-0.2547018847126537</v>
+        <v>1.401323249731339</v>
       </c>
       <c r="C6">
-        <v>0.02542956267315899</v>
+        <v>-0.1834595464799889</v>
       </c>
       <c r="D6">
-        <v>0.06429662790237101</v>
+        <v>0.7637584171904082</v>
       </c>
       <c r="E6">
-        <v>-0.04441558521286881</v>
+        <v>0.6840643209929795</v>
       </c>
       <c r="F6">
-        <v>0.1158347972616184</v>
+        <v>0.3955196473359223</v>
       </c>
       <c r="G6">
-        <v>0.02378293164715329</v>
+        <v>0.3859783224348007</v>
       </c>
       <c r="H6">
-        <v>-0.1924242066313951</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>-0.6333489277410616</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.1384218495710257</v>
+        <v>-0.1837880469139236</v>
       </c>
       <c r="C7">
-        <v>0.1772889148002377</v>
+        <v>0.7634299167564733</v>
       </c>
       <c r="D7">
-        <v>0.06857670168499792</v>
+        <v>0.6837358205590448</v>
       </c>
       <c r="E7">
-        <v>0.2288270841594851</v>
+        <v>0.3951911469019876</v>
       </c>
       <c r="F7">
-        <v>0.13677521854502</v>
+        <v>0.385649822000866</v>
       </c>
       <c r="G7">
-        <v>-0.07943191973352838</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>-0.6336774281749964</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.3774861614481053</v>
+        <v>0.8767241794531259</v>
       </c>
       <c r="C8">
-        <v>0.2687739483328655</v>
+        <v>0.7970300832556974</v>
       </c>
       <c r="D8">
-        <v>0.4290243308073527</v>
+        <v>0.5084854095986401</v>
       </c>
       <c r="E8">
-        <v>0.3369724651928876</v>
+        <v>0.4989440846975185</v>
       </c>
       <c r="F8">
-        <v>0.1207653269143392</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>-0.5203831654783438</v>
+      </c>
+      <c r="G8">
+        <v>-0.4985743480898549</v>
+      </c>
+      <c r="H8">
+        <v>1.040395882322164</v>
+      </c>
+      <c r="I8">
+        <v>0.08839554212067069</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.05151264671302583</v>
+        <v>0.5133193858515086</v>
       </c>
       <c r="C9">
-        <v>0.211763029187513</v>
+        <v>0.2247747121944514</v>
       </c>
       <c r="D9">
-        <v>0.1197111635730479</v>
+        <v>0.2152333872933298</v>
       </c>
       <c r="E9">
-        <v>-0.09649597470550048</v>
+        <v>-0.8040938628825325</v>
       </c>
       <c r="F9">
-        <v>-0.414016661145719</v>
+        <v>-0.7822850454940435</v>
       </c>
       <c r="G9">
-        <v>-0.1217916579341633</v>
+        <v>0.7566851849179757</v>
       </c>
       <c r="H9">
-        <v>-0.1279369062748643</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>-0.195315155283518</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.1048218578001226</v>
+        <v>0.0144045361508148</v>
       </c>
       <c r="C10">
-        <v>0.01276999218565751</v>
+        <v>0.004863211249693217</v>
       </c>
       <c r="D10">
-        <v>-0.2034371460928909</v>
+        <v>-1.014464038926169</v>
       </c>
       <c r="E10">
-        <v>-0.5209578325331093</v>
+        <v>-0.9926552215376802</v>
       </c>
       <c r="F10">
-        <v>-0.2287328293215537</v>
+        <v>0.546315008874339</v>
       </c>
       <c r="G10">
-        <v>-0.2348780776622547</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>-0.4056853313271546</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.04682909197218239</v>
+        <v>0.007661802773924347</v>
       </c>
       <c r="C11">
-        <v>-0.169378046306366</v>
+        <v>-1.011665447401938</v>
       </c>
       <c r="D11">
-        <v>-0.4868987327465845</v>
+        <v>-0.989856630013449</v>
       </c>
       <c r="E11">
-        <v>-0.1946737295350288</v>
+        <v>0.5491136003985702</v>
       </c>
       <c r="F11">
-        <v>-0.2008189778757298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>-0.4028867398029234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.2672985607516551</v>
+        <v>-1.10825169089279</v>
       </c>
       <c r="C12">
-        <v>-0.5848192471918736</v>
+        <v>-1.086442873504301</v>
       </c>
       <c r="D12">
-        <v>-0.2925942439803179</v>
+        <v>0.4525273569077186</v>
       </c>
       <c r="E12">
-        <v>-0.2987394923210189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>-0.499472983293775</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.6310332522231462</v>
+        <v>-1.011923540525774</v>
       </c>
       <c r="C13">
-        <v>-0.3388082490115905</v>
+        <v>0.5270466898862451</v>
       </c>
       <c r="D13">
-        <v>-0.3449534973522915</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>-0.4249536503152485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.295700231498192</v>
+        <v>0.58841169826065</v>
       </c>
       <c r="C14">
-        <v>-0.301845479838893</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>-0.3635886419408436</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.1803859789614279</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>-0.3509547008554236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/DOMUSE/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -483,25 +483,25 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>-1.726030308970723</v>
+        <v>-0.5901012142502704</v>
       </c>
       <c r="C2">
-        <v>-0.6707712956971672</v>
+        <v>-0.01440167524377749</v>
       </c>
       <c r="D2">
-        <v>-0.4524812228389575</v>
+        <v>1.061338161608444</v>
       </c>
       <c r="E2">
-        <v>0.6382515747836923</v>
+        <v>0.6195339903048283</v>
       </c>
       <c r="F2">
-        <v>1.054974892958893</v>
+        <v>-0.1902388420188028</v>
       </c>
       <c r="G2">
-        <v>-0.5298079032524352</v>
+        <v>0.08989260536700988</v>
       </c>
       <c r="H2">
-        <v>0.4174100604179617</v>
+        <v>0.1287596705962219</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -509,22 +509,22 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.5368479019170082</v>
+        <v>0.1195217185363816</v>
       </c>
       <c r="C3">
-        <v>-0.3185578290587984</v>
+        <v>1.195261555388603</v>
       </c>
       <c r="D3">
-        <v>0.7721749685638514</v>
+        <v>0.7534573840849873</v>
       </c>
       <c r="E3">
-        <v>1.188898286739052</v>
+        <v>-0.05631544823864371</v>
       </c>
       <c r="F3">
-        <v>-0.3958845094722762</v>
+        <v>0.223815999147169</v>
       </c>
       <c r="G3">
-        <v>0.5513334541981209</v>
+        <v>0.262683064376381</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -532,31 +532,31 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.2429041502562597</v>
+        <v>1.270915234191142</v>
       </c>
       <c r="C4">
-        <v>0.8478286473663901</v>
+        <v>0.829111062887526</v>
       </c>
       <c r="D4">
-        <v>1.264551965541591</v>
+        <v>0.01933823056389491</v>
       </c>
       <c r="E4">
-        <v>-0.3202308306697375</v>
+        <v>0.2994696779497076</v>
       </c>
       <c r="F4">
-        <v>0.6269871330006596</v>
+        <v>0.3383367431789197</v>
       </c>
       <c r="G4">
-        <v>0.5472930368032309</v>
+        <v>0.2296245300636798</v>
       </c>
       <c r="H4">
-        <v>0.2587483631461737</v>
+        <v>0.389874912538167</v>
       </c>
       <c r="I4">
-        <v>0.2492070382450521</v>
+        <v>0.2978230469237019</v>
       </c>
       <c r="J4">
-        <v>-0.7701202119308102</v>
+        <v>0.08161590864515353</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -564,28 +564,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1.529711793429503</v>
+        <v>1.510994208950639</v>
       </c>
       <c r="C5">
-        <v>1.946435111604704</v>
+        <v>0.7012213766270079</v>
       </c>
       <c r="D5">
-        <v>0.3616523153933755</v>
+        <v>0.9813528240128206</v>
       </c>
       <c r="E5">
-        <v>1.308870279063773</v>
+        <v>1.020219889242033</v>
       </c>
       <c r="F5">
-        <v>1.229176182866344</v>
+        <v>0.9115076761267928</v>
       </c>
       <c r="G5">
-        <v>0.9406315092092867</v>
+        <v>1.07175805860128</v>
       </c>
       <c r="H5">
-        <v>0.9310901843081651</v>
+        <v>0.9797061929868149</v>
       </c>
       <c r="I5">
-        <v>-0.0882370658676972</v>
+        <v>0.7634990547082665</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -593,25 +593,25 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>1.401323249731339</v>
+        <v>0.1561095147536435</v>
       </c>
       <c r="C6">
-        <v>-0.1834595464799889</v>
+        <v>0.4362409621394562</v>
       </c>
       <c r="D6">
-        <v>0.7637584171904082</v>
+        <v>0.4751080273686683</v>
       </c>
       <c r="E6">
-        <v>0.6840643209929795</v>
+        <v>0.3663958142534284</v>
       </c>
       <c r="F6">
-        <v>0.3955196473359223</v>
+        <v>0.5266461967279157</v>
       </c>
       <c r="G6">
-        <v>0.3859783224348007</v>
+        <v>0.4345943311134505</v>
       </c>
       <c r="H6">
-        <v>-0.6333489277410616</v>
+        <v>0.2183871928349021</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,22 +619,22 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.1837880469139236</v>
+        <v>0.4359124617055215</v>
       </c>
       <c r="C7">
-        <v>0.7634299167564733</v>
+        <v>0.4747795269347335</v>
       </c>
       <c r="D7">
-        <v>0.6837358205590448</v>
+        <v>0.3660673138194937</v>
       </c>
       <c r="E7">
-        <v>0.3951911469019876</v>
+        <v>0.5263176962939808</v>
       </c>
       <c r="F7">
-        <v>0.385649822000866</v>
+        <v>0.4342658306795158</v>
       </c>
       <c r="G7">
-        <v>-0.6336774281749964</v>
+        <v>0.2180586924009674</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -642,28 +642,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.8767241794531259</v>
+        <v>0.588073789631386</v>
       </c>
       <c r="C8">
-        <v>0.7970300832556974</v>
+        <v>0.4793615765161462</v>
       </c>
       <c r="D8">
-        <v>0.5084854095986401</v>
+        <v>0.6396119589906334</v>
       </c>
       <c r="E8">
-        <v>0.4989440846975185</v>
+        <v>0.5475600933761683</v>
       </c>
       <c r="F8">
-        <v>-0.5203831654783438</v>
+        <v>0.3313529550976199</v>
       </c>
       <c r="G8">
-        <v>-0.4985743480898549</v>
+        <v>0.01383226865740139</v>
       </c>
       <c r="H8">
-        <v>1.040395882322164</v>
+        <v>0.3060572718689571</v>
       </c>
       <c r="I8">
-        <v>0.08839554212067069</v>
+        <v>0.2999120235282561</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -671,25 +671,25 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.5133193858515086</v>
+        <v>0.1956508791119575</v>
       </c>
       <c r="C9">
-        <v>0.2247747121944514</v>
+        <v>0.3559012615864447</v>
       </c>
       <c r="D9">
-        <v>0.2152333872933298</v>
+        <v>0.2638493959719796</v>
       </c>
       <c r="E9">
-        <v>-0.8040938628825325</v>
+        <v>0.04764225769343119</v>
       </c>
       <c r="F9">
-        <v>-0.7822850454940435</v>
+        <v>-0.2698784287467873</v>
       </c>
       <c r="G9">
-        <v>0.7566851849179757</v>
+        <v>0.0223465744647684</v>
       </c>
       <c r="H9">
-        <v>-0.195315155283518</v>
+        <v>0.01620132612406738</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -697,22 +697,22 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>0.0144045361508148</v>
+        <v>0.1455310855428081</v>
       </c>
       <c r="C10">
-        <v>0.004863211249693217</v>
+        <v>0.05347921992834301</v>
       </c>
       <c r="D10">
-        <v>-1.014464038926169</v>
+        <v>-0.1627279183502054</v>
       </c>
       <c r="E10">
-        <v>-0.9926552215376802</v>
+        <v>-0.4802486047904239</v>
       </c>
       <c r="F10">
-        <v>0.546315008874339</v>
+        <v>-0.1880236015788682</v>
       </c>
       <c r="G10">
-        <v>-0.4056853313271546</v>
+        <v>-0.1941688499195692</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -720,19 +720,19 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>0.007661802773924347</v>
+        <v>0.05627781145257414</v>
       </c>
       <c r="C11">
-        <v>-1.011665447401938</v>
+        <v>-0.1599293268259743</v>
       </c>
       <c r="D11">
-        <v>-0.989856630013449</v>
+        <v>-0.4774500132661927</v>
       </c>
       <c r="E11">
-        <v>0.5491136003985702</v>
+        <v>-0.1852250100546371</v>
       </c>
       <c r="F11">
-        <v>-0.4028867398029234</v>
+        <v>-0.1913702583953381</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -740,16 +740,16 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>-1.10825169089279</v>
+        <v>-0.2565155703168258</v>
       </c>
       <c r="C12">
-        <v>-1.086442873504301</v>
+        <v>-0.5740362567570443</v>
       </c>
       <c r="D12">
-        <v>0.4525273569077186</v>
+        <v>-0.2818112535454886</v>
       </c>
       <c r="E12">
-        <v>-0.499472983293775</v>
+        <v>-0.2879565018861897</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -757,13 +757,13 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>-1.011923540525774</v>
+        <v>-0.4995169237785178</v>
       </c>
       <c r="C13">
-        <v>0.5270466898862451</v>
+        <v>-0.2072919205669621</v>
       </c>
       <c r="D13">
-        <v>-0.4249536503152485</v>
+        <v>-0.2134371689076631</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -771,10 +771,10 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>0.58841169826065</v>
+        <v>-0.1459269121925572</v>
       </c>
       <c r="C14">
-        <v>-0.3635886419408436</v>
+        <v>-0.1520721605332582</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -782,7 +782,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.3509547008554236</v>
+        <v>-0.1394382194478382</v>
       </c>
     </row>
     <row r="16" spans="1:10">

--- a/3_Component_Results/DOMUSE/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -41,6 +41,120 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -443,13 +557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,317 +591,1663 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
+        <v>-1.434012447393573</v>
+      </c>
+      <c r="C2">
+        <v>1.439261463743929</v>
+      </c>
+      <c r="D2">
+        <v>-0.8431925619000462</v>
+      </c>
+      <c r="E2">
+        <v>0.5349913200561616</v>
+      </c>
+      <c r="F2">
+        <v>2.211722360974275</v>
+      </c>
+      <c r="G2">
+        <v>1.894762380026902</v>
+      </c>
+      <c r="H2">
+        <v>-0.7816064405093242</v>
+      </c>
+      <c r="I2">
+        <v>1.947029252558591</v>
+      </c>
+      <c r="J2">
+        <v>-0.9050437920527683</v>
+      </c>
+      <c r="K2">
+        <v>-1.461527038862942</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>-0.8563094711655745</v>
+      </c>
+      <c r="C3">
+        <v>0.5218744107906332</v>
+      </c>
+      <c r="D3">
+        <v>2.198605451708747</v>
+      </c>
+      <c r="E3">
+        <v>1.881645470761373</v>
+      </c>
+      <c r="F3">
+        <v>-0.7947233497748525</v>
+      </c>
+      <c r="G3">
+        <v>1.933912343293062</v>
+      </c>
+      <c r="H3">
+        <v>-0.9181607013182966</v>
+      </c>
+      <c r="I3">
+        <v>-1.474643948128471</v>
+      </c>
+      <c r="J3">
+        <v>0.06376446957187337</v>
+      </c>
+      <c r="K3">
+        <v>0.6273986278043424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>2.145118644891102</v>
+      </c>
+      <c r="C4">
+        <v>1.828158663943729</v>
+      </c>
+      <c r="D4">
+        <v>-0.8482101565924972</v>
+      </c>
+      <c r="E4">
+        <v>1.880425536475418</v>
+      </c>
+      <c r="F4">
+        <v>-0.9716475081359414</v>
+      </c>
+      <c r="G4">
+        <v>-1.528130754946115</v>
+      </c>
+      <c r="H4">
+        <v>0.0102776627542287</v>
+      </c>
+      <c r="I4">
+        <v>0.5739118209866977</v>
+      </c>
+      <c r="J4">
+        <v>-0.6695527306724042</v>
+      </c>
+      <c r="K4">
+        <v>0.2102776627542287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>-1.194978179390929</v>
+      </c>
+      <c r="C5">
+        <v>1.533657513676986</v>
+      </c>
+      <c r="D5">
+        <v>-1.318415530934373</v>
+      </c>
+      <c r="E5">
+        <v>-1.874898777744547</v>
+      </c>
+      <c r="F5">
+        <v>-0.3364903600442034</v>
+      </c>
+      <c r="G5">
+        <v>0.2271437981882656</v>
+      </c>
+      <c r="H5">
+        <v>-1.016320753470836</v>
+      </c>
+      <c r="I5">
+        <v>-0.1364903600442034</v>
+      </c>
+      <c r="J5">
+        <v>-0.3364903600442034</v>
+      </c>
+      <c r="K5">
+        <v>-0.1668580417099861</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>-1.393863650709441</v>
+      </c>
+      <c r="C6">
+        <v>-1.950346897519615</v>
+      </c>
+      <c r="D6">
+        <v>-0.4119384798192712</v>
+      </c>
+      <c r="E6">
+        <v>0.1516956784131978</v>
+      </c>
+      <c r="F6">
+        <v>-1.091768873245904</v>
+      </c>
+      <c r="G6">
+        <v>-0.2119384798192712</v>
+      </c>
+      <c r="H6">
+        <v>-0.4119384798192712</v>
+      </c>
+      <c r="I6">
+        <v>-0.2423061614850539</v>
+      </c>
+      <c r="J6">
+        <v>0.2880615201807288</v>
+      </c>
+      <c r="K6">
+        <v>0.3926241689452112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>-0.4348909978494164</v>
+      </c>
+      <c r="C7">
+        <v>0.1287431603830526</v>
+      </c>
+      <c r="D7">
+        <v>-1.114721391276049</v>
+      </c>
+      <c r="E7">
+        <v>-0.2348909978494164</v>
+      </c>
+      <c r="F7">
+        <v>-0.4348909978494164</v>
+      </c>
+      <c r="G7">
+        <v>-0.265258679515199</v>
+      </c>
+      <c r="H7">
+        <v>0.2651090021505836</v>
+      </c>
+      <c r="I7">
+        <v>0.369671650915066</v>
+      </c>
+      <c r="J7">
+        <v>-0.03489099784941634</v>
+      </c>
+      <c r="K7">
+        <v>-0.01641893184472569</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-1.005103067557479</v>
+      </c>
+      <c r="C8">
+        <v>-0.1252726741308456</v>
+      </c>
+      <c r="D8">
+        <v>-0.3252726741308457</v>
+      </c>
+      <c r="E8">
+        <v>-0.1556403557966283</v>
+      </c>
+      <c r="F8">
+        <v>0.3747273258691544</v>
+      </c>
+      <c r="G8">
+        <v>0.4792899746336368</v>
+      </c>
+      <c r="H8">
+        <v>0.07472732586915437</v>
+      </c>
+      <c r="I8">
+        <v>0.09319939187384502</v>
+      </c>
+      <c r="J8">
+        <v>0.06549133968989135</v>
+      </c>
+      <c r="K8">
+        <v>-0.3116201701881713</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>-0.2140636459773773</v>
+      </c>
+      <c r="C9">
+        <v>-0.04443132764315999</v>
+      </c>
+      <c r="D9">
+        <v>0.4859363540226227</v>
+      </c>
+      <c r="E9">
+        <v>0.5904990027871051</v>
+      </c>
+      <c r="F9">
+        <v>0.1859363540226227</v>
+      </c>
+      <c r="G9">
+        <v>0.2044084200273134</v>
+      </c>
+      <c r="H9">
+        <v>0.1767003678433597</v>
+      </c>
+      <c r="I9">
+        <v>-0.200411142034703</v>
+      </c>
+      <c r="J9">
+        <v>-0.5104834403419503</v>
+      </c>
+      <c r="K9">
+        <v>0.5042613555928241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0.7150758418762363</v>
+      </c>
+      <c r="C10">
+        <v>0.8196384906407187</v>
+      </c>
+      <c r="D10">
+        <v>0.4150758418762363</v>
+      </c>
+      <c r="E10">
+        <v>0.433547907880927</v>
+      </c>
+      <c r="F10">
+        <v>0.4058398556969733</v>
+      </c>
+      <c r="G10">
+        <v>0.02872834581891059</v>
+      </c>
+      <c r="H10">
+        <v>-0.2813439524883366</v>
+      </c>
+      <c r="I10">
+        <v>0.7334008434464379</v>
+      </c>
+      <c r="J10">
+        <v>-1.437110315281837</v>
+      </c>
+      <c r="K10">
+        <v>0.5877685640336436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0.4699647837756911</v>
+      </c>
+      <c r="C11">
+        <v>0.4884368497803818</v>
+      </c>
+      <c r="D11">
+        <v>0.4607287975964281</v>
+      </c>
+      <c r="E11">
+        <v>0.08361728771836541</v>
+      </c>
+      <c r="F11">
+        <v>-0.2264550105888818</v>
+      </c>
+      <c r="G11">
+        <v>0.7882897853458926</v>
+      </c>
+      <c r="H11">
+        <v>-1.382221373382382</v>
+      </c>
+      <c r="I11">
+        <v>0.6426575059330984</v>
+      </c>
+      <c r="J11">
+        <v>0.6429625445525287</v>
+      </c>
+      <c r="K11">
+        <v>-0.5808427909086509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>0.3509043949618232</v>
+      </c>
+      <c r="C12">
+        <v>-0.0262071149162395</v>
+      </c>
+      <c r="D12">
+        <v>-0.3362794132234867</v>
+      </c>
+      <c r="E12">
+        <v>0.6784653827112876</v>
+      </c>
+      <c r="F12">
+        <v>-1.492045776016987</v>
+      </c>
+      <c r="G12">
+        <v>0.5328331032984935</v>
+      </c>
+      <c r="H12">
+        <v>0.5331381419179237</v>
+      </c>
+      <c r="I12">
+        <v>-0.6906671935432558</v>
+      </c>
+      <c r="J12">
+        <v>-0.1454884788767927</v>
+      </c>
+      <c r="K12">
+        <v>0.5786206974377067</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>-0.5162816460286436</v>
+      </c>
+      <c r="C13">
+        <v>0.4984631499061308</v>
+      </c>
+      <c r="D13">
+        <v>-1.672048008822144</v>
+      </c>
+      <c r="E13">
+        <v>0.3528308704933366</v>
+      </c>
+      <c r="F13">
+        <v>0.3531359091127669</v>
+      </c>
+      <c r="G13">
+        <v>-0.8706694263484126</v>
+      </c>
+      <c r="H13">
+        <v>-0.3254907116819495</v>
+      </c>
+      <c r="I13">
+        <v>0.3986184646325498</v>
+      </c>
+      <c r="J13">
+        <v>-0.5433959610992062</v>
+      </c>
+      <c r="K13">
+        <v>-0.6712503191312592</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>-1.678989583536057</v>
+      </c>
+      <c r="C14">
+        <v>0.3458892957794234</v>
+      </c>
+      <c r="D14">
+        <v>0.3461943343988537</v>
+      </c>
+      <c r="E14">
+        <v>-0.8776110010623258</v>
+      </c>
+      <c r="F14">
+        <v>-0.3324322863958628</v>
+      </c>
+      <c r="G14">
+        <v>0.3916768899186366</v>
+      </c>
+      <c r="H14">
+        <v>-0.5503375358131194</v>
+      </c>
+      <c r="I14">
+        <v>-0.6781918938451724</v>
+      </c>
+      <c r="J14">
+        <v>-0.6334768497741322</v>
+      </c>
+      <c r="K14">
+        <v>0.312019335112177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>0.4029816187738362</v>
+      </c>
+      <c r="C15">
+        <v>-0.8208237166873433</v>
+      </c>
+      <c r="D15">
+        <v>-0.2756450020208803</v>
+      </c>
+      <c r="E15">
+        <v>0.4484641742936191</v>
+      </c>
+      <c r="F15">
+        <v>-0.4935502514381369</v>
+      </c>
+      <c r="G15">
+        <v>-0.6214046094701899</v>
+      </c>
+      <c r="H15">
+        <v>-0.5766895653991497</v>
+      </c>
+      <c r="I15">
+        <v>0.3688066194871595</v>
+      </c>
+      <c r="J15">
+        <v>-0.2519439660638767</v>
+      </c>
+      <c r="K15">
+        <v>-0.4329426549032291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-0.3811623748963385</v>
+      </c>
+      <c r="C16">
+        <v>0.3429468014181609</v>
+      </c>
+      <c r="D16">
+        <v>-0.5990676243135951</v>
+      </c>
+      <c r="E16">
+        <v>-0.7269219823456481</v>
+      </c>
+      <c r="F16">
+        <v>-0.6822069382746079</v>
+      </c>
+      <c r="G16">
+        <v>0.2632892466117013</v>
+      </c>
+      <c r="H16">
+        <v>-0.3574613389393349</v>
+      </c>
+      <c r="I16">
+        <v>-0.5384600277786873</v>
+      </c>
+      <c r="J16">
+        <v>-0.04017257782209499</v>
+      </c>
+      <c r="K16">
+        <v>-1.040234253296423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>-0.3533987759898878</v>
+      </c>
+      <c r="C17">
+        <v>-0.4812531340219409</v>
+      </c>
+      <c r="D17">
+        <v>-0.4365380899509007</v>
+      </c>
+      <c r="E17">
+        <v>0.5089580949354086</v>
+      </c>
+      <c r="F17">
+        <v>-0.1117924906156276</v>
+      </c>
+      <c r="G17">
+        <v>-0.2927911794549801</v>
+      </c>
+      <c r="H17">
+        <v>0.2054962705016123</v>
+      </c>
+      <c r="I17">
+        <v>-0.7945654049727153</v>
+      </c>
+      <c r="J17">
+        <v>-0.06158873404629622</v>
+      </c>
+      <c r="K17">
+        <v>0.2342182902967438</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>-0.3979099628455358</v>
+      </c>
+      <c r="C18">
+        <v>0.5475862220407735</v>
+      </c>
+      <c r="D18">
+        <v>-0.07316436351026279</v>
+      </c>
+      <c r="E18">
+        <v>-0.2541630523496152</v>
+      </c>
+      <c r="F18">
+        <v>0.2441243976069771</v>
+      </c>
+      <c r="G18">
+        <v>-0.7559372778673505</v>
+      </c>
+      <c r="H18">
+        <v>-0.02296060694093138</v>
+      </c>
+      <c r="I18">
+        <v>0.2728464174021086</v>
+      </c>
+      <c r="J18">
+        <v>0.02303654731320731</v>
+      </c>
+      <c r="K18">
+        <v>-0.4675734959645055</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>-0.08667482930828213</v>
+      </c>
+      <c r="C19">
+        <v>-0.2676735181476346</v>
+      </c>
+      <c r="D19">
+        <v>0.2306139318089578</v>
+      </c>
+      <c r="E19">
+        <v>-0.7694477436653699</v>
+      </c>
+      <c r="F19">
+        <v>-0.03647107273895073</v>
+      </c>
+      <c r="G19">
+        <v>0.2593359516040893</v>
+      </c>
+      <c r="H19">
+        <v>0.009526081515187967</v>
+      </c>
+      <c r="I19">
+        <v>-0.4810839617625248</v>
+      </c>
+      <c r="J19">
+        <v>-0.4047470052474069</v>
+      </c>
+      <c r="K19">
+        <v>0.3865288351703356</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0.2036542862534276</v>
+      </c>
+      <c r="C20">
+        <v>-0.7964073892209</v>
+      </c>
+      <c r="D20">
+        <v>-0.06343071829448088</v>
+      </c>
+      <c r="E20">
+        <v>0.2323763060485591</v>
+      </c>
+      <c r="F20">
+        <v>-0.01743356404034219</v>
+      </c>
+      <c r="G20">
+        <v>-0.508043607318055</v>
+      </c>
+      <c r="H20">
+        <v>-0.431706650802937</v>
+      </c>
+      <c r="I20">
+        <v>0.3595691896148054</v>
+      </c>
+      <c r="J20">
+        <v>0.168293349197063</v>
+      </c>
+      <c r="K20">
+        <v>-0.1195605315940867</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>0.06175799248494507</v>
+      </c>
+      <c r="C21">
+        <v>0.3575650168279851</v>
+      </c>
+      <c r="D21">
+        <v>0.1077551467390838</v>
+      </c>
+      <c r="E21">
+        <v>-0.382854896538629</v>
+      </c>
+      <c r="F21">
+        <v>-0.3065179400235111</v>
+      </c>
+      <c r="G21">
+        <v>0.4847579003942314</v>
+      </c>
+      <c r="H21">
+        <v>0.293482059976489</v>
+      </c>
+      <c r="I21">
+        <v>0.005628179185339255</v>
+      </c>
+      <c r="J21">
+        <v>0.8978123199304096</v>
+      </c>
+      <c r="K21">
+        <v>-0.2248733171942491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>0.1601910560758034</v>
+      </c>
+      <c r="C22">
+        <v>-0.3304189872019094</v>
+      </c>
+      <c r="D22">
+        <v>-0.2540820306867915</v>
+      </c>
+      <c r="E22">
+        <v>0.537193809730951</v>
+      </c>
+      <c r="F22">
+        <v>0.3459179693132086</v>
+      </c>
+      <c r="G22">
+        <v>0.05806408852205885</v>
+      </c>
+      <c r="H22">
+        <v>0.9502482292671292</v>
+      </c>
+      <c r="I22">
+        <v>-0.1724374078575295</v>
+      </c>
+      <c r="J22">
+        <v>2.045917969313209</v>
+      </c>
+      <c r="K22">
+        <v>7.776962102520216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>-0.3099079440213436</v>
+      </c>
+      <c r="C23">
+        <v>-0.2335709875062256</v>
+      </c>
+      <c r="D23">
+        <v>0.5577048529115168</v>
+      </c>
+      <c r="E23">
+        <v>0.3664290124937744</v>
+      </c>
+      <c r="F23">
+        <v>0.0785751317026247</v>
+      </c>
+      <c r="G23">
+        <v>0.970759272447695</v>
+      </c>
+      <c r="H23">
+        <v>-0.1519263646769636</v>
+      </c>
+      <c r="I23">
+        <v>2.066429012493774</v>
+      </c>
+      <c r="J23">
+        <v>7.797473145700781</v>
+      </c>
+      <c r="K23">
+        <v>-4.162972625597543</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-0.274734816060536</v>
+      </c>
+      <c r="C24">
+        <v>0.5165410243572065</v>
+      </c>
+      <c r="D24">
+        <v>0.3252651839394641</v>
+      </c>
+      <c r="E24">
+        <v>0.03741130314831437</v>
+      </c>
+      <c r="F24">
+        <v>0.9295954438933847</v>
+      </c>
+      <c r="G24">
+        <v>-0.193090193231274</v>
+      </c>
+      <c r="H24">
+        <v>2.025265183939464</v>
+      </c>
+      <c r="I24">
+        <v>7.756309317146471</v>
+      </c>
+      <c r="J24">
+        <v>-4.204136454151854</v>
+      </c>
+      <c r="K24">
+        <v>1.415777920335853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>0.513107551495801</v>
+      </c>
+      <c r="C25">
+        <v>0.3218317110780586</v>
+      </c>
+      <c r="D25">
+        <v>0.03397783028690887</v>
+      </c>
+      <c r="E25">
+        <v>0.9261619710319792</v>
+      </c>
+      <c r="F25">
+        <v>-0.1965236660926795</v>
+      </c>
+      <c r="G25">
+        <v>2.021831711078058</v>
+      </c>
+      <c r="H25">
+        <v>7.752875844285065</v>
+      </c>
+      <c r="I25">
+        <v>-4.207569927013259</v>
+      </c>
+      <c r="J25">
+        <v>1.412344447474447</v>
+      </c>
+      <c r="K25">
+        <v>2.564525492360269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>0.3172829324759497</v>
+      </c>
+      <c r="C26">
+        <v>0.02942905168479998</v>
+      </c>
+      <c r="D26">
+        <v>0.9216131924298703</v>
+      </c>
+      <c r="E26">
+        <v>-0.2010724446947884</v>
+      </c>
+      <c r="F26">
+        <v>2.01728293247595</v>
+      </c>
+      <c r="G26">
+        <v>7.748327065682957</v>
+      </c>
+      <c r="H26">
+        <v>-4.212118705615368</v>
+      </c>
+      <c r="I26">
+        <v>1.407795668872338</v>
+      </c>
+      <c r="J26">
+        <v>2.559976713758159</v>
+      </c>
+      <c r="K26">
+        <v>-1.575741703689701</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>0.02546700722722445</v>
+      </c>
+      <c r="C27">
+        <v>0.9176511479722947</v>
+      </c>
+      <c r="D27">
+        <v>-0.2050344891523639</v>
+      </c>
+      <c r="E27">
+        <v>2.013320888018374</v>
+      </c>
+      <c r="F27">
+        <v>7.744365021225381</v>
+      </c>
+      <c r="G27">
+        <v>-4.216080750072944</v>
+      </c>
+      <c r="H27">
+        <v>1.403833624414763</v>
+      </c>
+      <c r="I27">
+        <v>2.556014669300584</v>
+      </c>
+      <c r="J27">
+        <v>-1.579703748147277</v>
+      </c>
+      <c r="K27">
+        <v>-0.5852146589380238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>0.8795683858881737</v>
+      </c>
+      <c r="C28">
+        <v>-0.243117251236485</v>
+      </c>
+      <c r="D28">
+        <v>1.975238125934253</v>
+      </c>
+      <c r="E28">
+        <v>7.70628225914126</v>
+      </c>
+      <c r="F28">
+        <v>-4.254163512157064</v>
+      </c>
+      <c r="G28">
+        <v>1.365750862330642</v>
+      </c>
+      <c r="H28">
+        <v>2.517931907216463</v>
+      </c>
+      <c r="I28">
+        <v>-1.617786510231398</v>
+      </c>
+      <c r="J28">
+        <v>-0.6232974210221449</v>
+      </c>
+      <c r="K28">
+        <v>0.9469556731914952</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>-0.2750174490883951</v>
+      </c>
+      <c r="C29">
+        <v>1.943337928082343</v>
+      </c>
+      <c r="D29">
+        <v>7.67438206128935</v>
+      </c>
+      <c r="E29">
+        <v>-4.286063710008975</v>
+      </c>
+      <c r="F29">
+        <v>1.333850664478731</v>
+      </c>
+      <c r="G29">
+        <v>2.486031709364553</v>
+      </c>
+      <c r="H29">
+        <v>-1.649686708083308</v>
+      </c>
+      <c r="I29">
+        <v>-0.6551976188740551</v>
+      </c>
+      <c r="J29">
+        <v>0.915055475339585</v>
+      </c>
+      <c r="K29">
+        <v>-0.4967925325930198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>1.861290368478991</v>
+      </c>
+      <c r="C30">
+        <v>7.592334501685999</v>
+      </c>
+      <c r="D30">
+        <v>-4.368111269612326</v>
+      </c>
+      <c r="E30">
+        <v>1.25180310487538</v>
+      </c>
+      <c r="F30">
+        <v>2.403984149761201</v>
+      </c>
+      <c r="G30">
+        <v>-1.73173426768666</v>
+      </c>
+      <c r="H30">
+        <v>-0.7372451784774067</v>
+      </c>
+      <c r="I30">
+        <v>0.8330079157362333</v>
+      </c>
+      <c r="J30">
+        <v>-0.5788400921963713</v>
+      </c>
+      <c r="K30">
+        <v>-0.2779821363347551</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>7.535046823790496</v>
+      </c>
+      <c r="C31">
+        <v>-4.425398947507829</v>
+      </c>
+      <c r="D31">
+        <v>1.194515426979877</v>
+      </c>
+      <c r="E31">
+        <v>2.346696471865699</v>
+      </c>
+      <c r="F31">
+        <v>-1.789021945582162</v>
+      </c>
+      <c r="G31">
+        <v>-0.794532856372909</v>
+      </c>
+      <c r="H31">
+        <v>0.7757202378407311</v>
+      </c>
+      <c r="I31">
+        <v>-0.6361277700918737</v>
+      </c>
+      <c r="J31">
+        <v>-0.3352698142302574</v>
+      </c>
+      <c r="K31">
+        <v>0.2404297247762355</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>-4.621249408388961</v>
+      </c>
+      <c r="C32">
+        <v>0.9986649660987458</v>
+      </c>
+      <c r="D32">
+        <v>2.150846010984567</v>
+      </c>
+      <c r="E32">
+        <v>-1.984872406463294</v>
+      </c>
+      <c r="F32">
+        <v>-0.9903833172540407</v>
+      </c>
+      <c r="G32">
+        <v>0.5798697769595994</v>
+      </c>
+      <c r="H32">
+        <v>-0.8319782309730054</v>
+      </c>
+      <c r="I32">
+        <v>-0.5311202751113892</v>
+      </c>
+      <c r="J32">
+        <v>0.04457926389510383</v>
+      </c>
+      <c r="K32">
+        <v>1.120319100747325</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>0.7348330996292001</v>
+      </c>
+      <c r="C33">
+        <v>1.887014144515021</v>
+      </c>
+      <c r="D33">
+        <v>-2.248704272932839</v>
+      </c>
+      <c r="E33">
+        <v>-1.254215183723586</v>
+      </c>
+      <c r="F33">
+        <v>0.3160379104900537</v>
+      </c>
+      <c r="G33">
+        <v>-1.095810097442551</v>
+      </c>
+      <c r="H33">
+        <v>-0.7949521415809349</v>
+      </c>
+      <c r="I33">
+        <v>-0.2192526025744419</v>
+      </c>
+      <c r="J33">
+        <v>0.8564872342777796</v>
+      </c>
+      <c r="K33">
+        <v>0.4146830629741638</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>1.727679739265556</v>
+      </c>
+      <c r="C34">
+        <v>-2.408038678182305</v>
+      </c>
+      <c r="D34">
+        <v>-1.413549588973052</v>
+      </c>
+      <c r="E34">
+        <v>0.1567035052405878</v>
+      </c>
+      <c r="F34">
+        <v>-1.255144502692017</v>
+      </c>
+      <c r="G34">
+        <v>-0.9542865468304007</v>
+      </c>
+      <c r="H34">
+        <v>-0.3785870078239077</v>
+      </c>
+      <c r="I34">
+        <v>0.6971528290283138</v>
+      </c>
+      <c r="J34">
+        <v>0.255348657724698</v>
+      </c>
+      <c r="K34">
+        <v>-0.554424174598933</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>-2.617529366528595</v>
+      </c>
+      <c r="C35">
+        <v>-1.623040277319342</v>
+      </c>
+      <c r="D35">
+        <v>-0.05278718310570191</v>
+      </c>
+      <c r="E35">
+        <v>-1.464635191038307</v>
+      </c>
+      <c r="F35">
+        <v>-1.16377723517669</v>
+      </c>
+      <c r="G35">
+        <v>-0.5880776961701975</v>
+      </c>
+      <c r="H35">
+        <v>0.4876621406820241</v>
+      </c>
+      <c r="I35">
+        <v>0.04585796937840825</v>
+      </c>
+      <c r="J35">
+        <v>-0.7639148629452228</v>
+      </c>
+      <c r="K35">
+        <v>-0.4837834155594101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>-1.348750223487417</v>
+      </c>
+      <c r="C36">
+        <v>0.2215028707262228</v>
+      </c>
+      <c r="D36">
+        <v>-1.190345137206382</v>
+      </c>
+      <c r="E36">
+        <v>-0.8894871813447658</v>
+      </c>
+      <c r="F36">
+        <v>-0.3137876423382728</v>
+      </c>
+      <c r="G36">
+        <v>0.7619521945139487</v>
+      </c>
+      <c r="H36">
+        <v>0.3201480232103329</v>
+      </c>
+      <c r="I36">
+        <v>-0.4896248091132981</v>
+      </c>
+      <c r="J36">
+        <v>-0.2094933617274854</v>
+      </c>
+      <c r="K36">
+        <v>-0.1706262964982734</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>0.3430384771749563</v>
+      </c>
+      <c r="C37">
+        <v>-1.068809530757648</v>
+      </c>
+      <c r="D37">
+        <v>-0.7679515748960322</v>
+      </c>
+      <c r="E37">
+        <v>-0.1922520358895393</v>
+      </c>
+      <c r="F37">
+        <v>0.8834878009626823</v>
+      </c>
+      <c r="G37">
+        <v>0.4416836296590664</v>
+      </c>
+      <c r="H37">
+        <v>-0.3680892026645646</v>
+      </c>
+      <c r="I37">
+        <v>-0.08795775527875188</v>
+      </c>
+      <c r="J37">
+        <v>-0.04909069004953986</v>
+      </c>
+      <c r="K37">
+        <v>-0.1578029031647797</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>-0.9927823474002633</v>
+      </c>
+      <c r="C38">
+        <v>-0.691924391538647</v>
+      </c>
+      <c r="D38">
+        <v>-0.1162248525321541</v>
+      </c>
+      <c r="E38">
+        <v>0.9595149843200674</v>
+      </c>
+      <c r="F38">
+        <v>0.5177108130164516</v>
+      </c>
+      <c r="G38">
+        <v>-0.2920620193071795</v>
+      </c>
+      <c r="H38">
+        <v>-0.01193057192136671</v>
+      </c>
+      <c r="I38">
+        <v>0.02693649330784531</v>
+      </c>
+      <c r="J38">
+        <v>-0.08177571980739451</v>
+      </c>
+      <c r="K38">
+        <v>0.07847466266709269</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
         <v>-0.5901012142502704</v>
       </c>
-      <c r="C2">
+      <c r="C39">
         <v>-0.01440167524377749</v>
       </c>
-      <c r="D2">
+      <c r="D39">
         <v>1.061338161608444</v>
       </c>
-      <c r="E2">
+      <c r="E39">
         <v>0.6195339903048283</v>
       </c>
-      <c r="F2">
+      <c r="F39">
         <v>-0.1902388420188028</v>
       </c>
-      <c r="G2">
+      <c r="G39">
         <v>0.08989260536700988</v>
       </c>
-      <c r="H2">
+      <c r="H39">
         <v>0.1287596705962219</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
+      <c r="I39">
+        <v>0.02004745748098209</v>
+      </c>
+      <c r="J39">
+        <v>0.1802978399554693</v>
+      </c>
+      <c r="K39">
+        <v>0.08824597434100419</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
         <v>0.1195217185363816</v>
       </c>
-      <c r="C3">
+      <c r="C40">
         <v>1.195261555388603</v>
       </c>
-      <c r="D3">
+      <c r="D40">
         <v>0.7534573840849873</v>
       </c>
-      <c r="E3">
+      <c r="E40">
         <v>-0.05631544823864371</v>
       </c>
-      <c r="F3">
+      <c r="F40">
         <v>0.223815999147169</v>
       </c>
-      <c r="G3">
+      <c r="G40">
         <v>0.262683064376381</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
+      <c r="H40">
+        <v>0.1539708512611412</v>
+      </c>
+      <c r="I40">
+        <v>0.3142212337356284</v>
+      </c>
+      <c r="J40">
+        <v>0.2221693681211633</v>
+      </c>
+      <c r="K40">
+        <v>0.005962229842614908</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
         <v>1.270915234191142</v>
       </c>
-      <c r="C4">
+      <c r="C41">
         <v>0.829111062887526</v>
       </c>
-      <c r="D4">
+      <c r="D41">
         <v>0.01933823056389491</v>
       </c>
-      <c r="E4">
+      <c r="E41">
         <v>0.2994696779497076</v>
       </c>
-      <c r="F4">
+      <c r="F41">
         <v>0.3383367431789197</v>
       </c>
-      <c r="G4">
+      <c r="G41">
         <v>0.2296245300636798</v>
       </c>
-      <c r="H4">
+      <c r="H41">
         <v>0.389874912538167</v>
       </c>
-      <c r="I4">
+      <c r="I41">
         <v>0.2978230469237019</v>
       </c>
-      <c r="J4">
+      <c r="J41">
         <v>0.08161590864515353</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
+      <c r="K41">
+        <v>-0.235904777795065</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
         <v>1.510994208950639</v>
       </c>
-      <c r="C5">
+      <c r="C42">
         <v>0.7012213766270079</v>
       </c>
-      <c r="D5">
+      <c r="D42">
         <v>0.9813528240128206</v>
       </c>
-      <c r="E5">
+      <c r="E42">
         <v>1.020219889242033</v>
       </c>
-      <c r="F5">
+      <c r="F42">
         <v>0.9115076761267928</v>
       </c>
-      <c r="G5">
+      <c r="G42">
         <v>1.07175805860128</v>
       </c>
-      <c r="H5">
+      <c r="H42">
         <v>0.9797061929868149</v>
       </c>
-      <c r="I5">
+      <c r="I42">
         <v>0.7634990547082665</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
+      <c r="J42">
+        <v>0.445978368268048</v>
+      </c>
+      <c r="K42">
+        <v>0.7382033714796037</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
         <v>0.1561095147536435</v>
       </c>
-      <c r="C6">
+      <c r="C43">
         <v>0.4362409621394562</v>
       </c>
-      <c r="D6">
+      <c r="D43">
         <v>0.4751080273686683</v>
       </c>
-      <c r="E6">
+      <c r="E43">
         <v>0.3663958142534284</v>
       </c>
-      <c r="F6">
+      <c r="F43">
         <v>0.5266461967279157</v>
       </c>
-      <c r="G6">
+      <c r="G43">
         <v>0.4345943311134505</v>
       </c>
-      <c r="H6">
+      <c r="H43">
         <v>0.2183871928349021</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
+      <c r="I43">
+        <v>-0.09913349360531637</v>
+      </c>
+      <c r="J43">
+        <v>0.1930915096062393</v>
+      </c>
+      <c r="K43">
+        <v>0.1869462612655383</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
         <v>0.4359124617055215</v>
       </c>
-      <c r="C7">
+      <c r="C44">
         <v>0.4747795269347335</v>
       </c>
-      <c r="D7">
+      <c r="D44">
         <v>0.3660673138194937</v>
       </c>
-      <c r="E7">
+      <c r="E44">
         <v>0.5263176962939808</v>
       </c>
-      <c r="F7">
+      <c r="F44">
         <v>0.4342658306795158</v>
       </c>
-      <c r="G7">
+      <c r="G44">
         <v>0.2180586924009674</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
+      <c r="H44">
+        <v>-0.0994619940392511</v>
+      </c>
+      <c r="I44">
+        <v>0.1927630091723046</v>
+      </c>
+      <c r="J44">
+        <v>0.1866177608316036</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
         <v>0.588073789631386</v>
       </c>
-      <c r="C8">
+      <c r="C45">
         <v>0.4793615765161462</v>
       </c>
-      <c r="D8">
+      <c r="D45">
         <v>0.6396119589906334</v>
       </c>
-      <c r="E8">
+      <c r="E45">
         <v>0.5475600933761683</v>
       </c>
-      <c r="F8">
+      <c r="F45">
         <v>0.3313529550976199</v>
       </c>
-      <c r="G8">
+      <c r="G45">
         <v>0.01383226865740139</v>
       </c>
-      <c r="H8">
+      <c r="H45">
         <v>0.3060572718689571</v>
       </c>
-      <c r="I8">
+      <c r="I45">
         <v>0.2999120235282561</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
         <v>0.1956508791119575</v>
       </c>
-      <c r="C9">
+      <c r="C46">
         <v>0.3559012615864447</v>
       </c>
-      <c r="D9">
+      <c r="D46">
         <v>0.2638493959719796</v>
       </c>
-      <c r="E9">
+      <c r="E46">
         <v>0.04764225769343119</v>
       </c>
-      <c r="F9">
+      <c r="F46">
         <v>-0.2698784287467873</v>
       </c>
-      <c r="G9">
+      <c r="G46">
         <v>0.0223465744647684</v>
       </c>
-      <c r="H9">
+      <c r="H46">
         <v>0.01620132612406738</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
         <v>0.1455310855428081</v>
       </c>
-      <c r="C10">
+      <c r="C47">
         <v>0.05347921992834301</v>
       </c>
-      <c r="D10">
+      <c r="D47">
         <v>-0.1627279183502054</v>
       </c>
-      <c r="E10">
+      <c r="E47">
         <v>-0.4802486047904239</v>
       </c>
-      <c r="F10">
+      <c r="F47">
         <v>-0.1880236015788682</v>
       </c>
-      <c r="G10">
+      <c r="G47">
         <v>-0.1941688499195692</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
         <v>0.05627781145257414</v>
       </c>
-      <c r="C11">
+      <c r="C48">
         <v>-0.1599293268259743</v>
       </c>
-      <c r="D11">
+      <c r="D48">
         <v>-0.4774500132661927</v>
       </c>
-      <c r="E11">
+      <c r="E48">
         <v>-0.1852250100546371</v>
       </c>
-      <c r="F11">
+      <c r="F48">
         <v>-0.1913702583953381</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
         <v>-0.2565155703168258</v>
       </c>
-      <c r="C12">
+      <c r="C49">
         <v>-0.5740362567570443</v>
       </c>
-      <c r="D12">
+      <c r="D49">
         <v>-0.2818112535454886</v>
       </c>
-      <c r="E12">
+      <c r="E49">
         <v>-0.2879565018861897</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
         <v>-0.4995169237785178</v>
       </c>
-      <c r="C13">
+      <c r="C50">
         <v>-0.2072919205669621</v>
       </c>
-      <c r="D13">
+      <c r="D50">
         <v>-0.2134371689076631</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
         <v>-0.1459269121925572</v>
       </c>
-      <c r="C14">
+      <c r="C51">
         <v>-0.1520721605332582</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15">
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
         <v>-0.1394382194478382</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/DOMUSE/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -600,34 +600,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>0.7336539199056886</v>
+      </c>
+      <c r="C2">
         <v>-1.434012447393573</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1.439261463743929</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-0.8431925619000462</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.5349913200561616</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2.211722360974275</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1.894762380026902</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-0.7816064405093242</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1.947029252558591</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-0.9050437920527683</v>
-      </c>
-      <c r="K2">
-        <v>-1.461527038862942</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -635,34 +635,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>1.426144554478401</v>
+      </c>
+      <c r="C3">
         <v>-0.8563094711655745</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.5218744107906332</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2.198605451708747</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.881645470761373</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-0.7947233497748525</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1.933912343293062</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-0.9181607013182966</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-1.474643948128471</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.06376446957187337</v>
-      </c>
-      <c r="K3">
-        <v>0.6273986278043424</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,34 +670,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>0.4683876039729885</v>
+      </c>
+      <c r="C4">
         <v>2.145118644891102</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1.828158663943729</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-0.8482101565924972</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.880425536475418</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-0.9716475081359414</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-1.528130754946115</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.0102776627542287</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.5739118209866977</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-0.6695527306724042</v>
-      </c>
-      <c r="K4">
-        <v>0.2102776627542287</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -705,34 +705,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>1.481390641145297</v>
+      </c>
+      <c r="C5">
         <v>-1.194978179390929</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1.533657513676986</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-1.318415530934373</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-1.874898777744547</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-0.3364903600442034</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.2271437981882656</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-1.016320753470836</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-0.1364903600442034</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-0.3364903600442034</v>
-      </c>
-      <c r="K5">
-        <v>-0.1668580417099861</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -740,34 +740,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>1.458209393901918</v>
+      </c>
+      <c r="C6">
         <v>-1.393863650709441</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-1.950346897519615</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-0.4119384798192712</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.1516956784131978</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-1.091768873245904</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-0.2119384798192712</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-0.4119384798192712</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-0.2423061614850539</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.2880615201807288</v>
-      </c>
-      <c r="K6">
-        <v>0.3926241689452112</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -775,34 +775,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>-1.97329941554976</v>
+      </c>
+      <c r="C7">
         <v>-0.4348909978494164</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.1287431603830526</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-1.114721391276049</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-0.2348909978494164</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-0.4348909978494164</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-0.265258679515199</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.2651090021505836</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.369671650915066</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-0.03489099784941634</v>
-      </c>
-      <c r="K7">
-        <v>-0.01641893184472569</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -810,34 +810,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>0.2383614841016234</v>
+      </c>
+      <c r="C8">
         <v>-1.005103067557479</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-0.1252726741308456</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-0.3252726741308457</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-0.1556403557966283</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.3747273258691544</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.4792899746336368</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.07472732586915437</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.09319939187384502</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.06549133968989135</v>
-      </c>
-      <c r="K8">
-        <v>-0.3116201701881713</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -845,34 +845,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>-0.0140636459773773</v>
+      </c>
+      <c r="C9">
         <v>-0.2140636459773773</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-0.04443132764315999</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.4859363540226227</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.5904990027871051</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.1859363540226227</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.2044084200273134</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.1767003678433597</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-0.200411142034703</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-0.5104834403419503</v>
-      </c>
-      <c r="K9">
-        <v>0.5042613555928241</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -880,34 +880,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>0.1847081602104536</v>
+      </c>
+      <c r="C10">
         <v>0.7150758418762363</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.8196384906407187</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.4150758418762363</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.433547907880927</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.4058398556969733</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.02872834581891059</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-0.2813439524883366</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.7334008434464379</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-1.437110315281837</v>
-      </c>
-      <c r="K10">
-        <v>0.5877685640336436</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -915,34 +915,34 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>0.8745274325401735</v>
+      </c>
+      <c r="C11">
         <v>0.4699647837756911</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.4884368497803818</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.4607287975964281</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.08361728771836541</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-0.2264550105888818</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.7882897853458926</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-1.382221373382382</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.6426575059330984</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.6429625445525287</v>
-      </c>
-      <c r="K11">
-        <v>-0.5808427909086509</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -950,34 +950,34 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>0.3786124471457769</v>
+      </c>
+      <c r="C12">
         <v>0.3509043949618232</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-0.0262071149162395</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-0.3362794132234867</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.6784653827112876</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-1.492045776016987</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.5328331032984935</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.5331381419179237</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-0.6906671935432558</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-0.1454884788767927</v>
-      </c>
-      <c r="K12">
-        <v>0.5786206974377067</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -985,34 +985,34 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>-0.2062093477213964</v>
+      </c>
+      <c r="C13">
         <v>-0.5162816460286436</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.4984631499061308</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-1.672048008822144</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.3528308704933366</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.3531359091127669</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-0.8706694263484126</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-0.3254907116819495</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.3986184646325498</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-0.5433959610992062</v>
-      </c>
-      <c r="K13">
-        <v>-0.6712503191312592</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1020,34 +1020,34 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>0.4915215751922176</v>
+      </c>
+      <c r="C14">
         <v>-1.678989583536057</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.3458892957794234</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.3461943343988537</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-0.8776110010623258</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-0.3324322863958628</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.3916768899186366</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-0.5503375358131194</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-0.6781918938451724</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-0.6334768497741322</v>
-      </c>
-      <c r="K14">
-        <v>0.312019335112177</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1055,34 +1055,34 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>0.4026765801544059</v>
+      </c>
+      <c r="C15">
         <v>0.4029816187738362</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-0.8208237166873433</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-0.2756450020208803</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.4484641742936191</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-0.4935502514381369</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-0.6214046094701899</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-0.5766895653991497</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.3688066194871595</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-0.2519439660638767</v>
-      </c>
-      <c r="K15">
-        <v>-0.4329426549032291</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1090,34 +1090,34 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>-0.9263410895628015</v>
+      </c>
+      <c r="C16">
         <v>-0.3811623748963385</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.3429468014181609</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>-0.5990676243135951</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-0.7269219823456481</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-0.6822069382746079</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.2632892466117013</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-0.3574613389393349</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-0.5384600277786873</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-0.04017257782209499</v>
-      </c>
-      <c r="K16">
-        <v>-1.040234253296423</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1125,34 +1125,34 @@
         <v>25</v>
       </c>
       <c r="B17">
+        <v>0.5886156497418682</v>
+      </c>
+      <c r="C17">
         <v>-0.3533987759898878</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-0.4812531340219409</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-0.4365380899509007</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.5089580949354086</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-0.1117924906156276</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-0.2927911794549801</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.2054962705016123</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-0.7945654049727153</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-0.06158873404629622</v>
-      </c>
-      <c r="K17">
-        <v>0.2342182902967438</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1160,34 +1160,34 @@
         <v>26</v>
       </c>
       <c r="B18">
+        <v>-0.442625006916576</v>
+      </c>
+      <c r="C18">
         <v>-0.3979099628455358</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.5475862220407735</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-0.07316436351026279</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-0.2541630523496152</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.2441243976069771</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-0.7559372778673505</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-0.02296060694093138</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.2728464174021086</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.02303654731320731</v>
-      </c>
-      <c r="K18">
-        <v>-0.4675734959645055</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1195,34 +1195,34 @@
         <v>27</v>
       </c>
       <c r="B19">
+        <v>0.5340757562427541</v>
+      </c>
+      <c r="C19">
         <v>-0.08667482930828213</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-0.2676735181476346</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.2306139318089578</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-0.7694477436653699</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-0.03647107273895073</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.2593359516040893</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.009526081515187967</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-0.4810839617625248</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-0.4047470052474069</v>
-      </c>
-      <c r="K19">
-        <v>0.3865288351703356</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1230,34 +1230,34 @@
         <v>28</v>
       </c>
       <c r="B20">
+        <v>-0.2946331637031647</v>
+      </c>
+      <c r="C20">
         <v>0.2036542862534276</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-0.7964073892209</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-0.06343071829448088</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.2323763060485591</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-0.01743356404034219</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>-0.508043607318055</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-0.431706650802937</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.3595691896148054</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.168293349197063</v>
-      </c>
-      <c r="K20">
-        <v>-0.1195605315940867</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1265,34 +1265,34 @@
         <v>29</v>
       </c>
       <c r="B21">
+        <v>-0.6712186784414741</v>
+      </c>
+      <c r="C21">
         <v>0.06175799248494507</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.3575650168279851</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.1077551467390838</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-0.382854896538629</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-0.3065179400235111</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.4847579003942314</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.293482059976489</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.005628179185339255</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.8978123199304096</v>
-      </c>
-      <c r="K21">
-        <v>-0.2248733171942491</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1300,34 +1300,34 @@
         <v>30</v>
       </c>
       <c r="B22">
+        <v>0.4100009261647047</v>
+      </c>
+      <c r="C22">
         <v>0.1601910560758034</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-0.3304189872019094</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>-0.2540820306867915</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.537193809730951</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.3459179693132086</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.05806408852205885</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.9502482292671292</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-0.1724374078575295</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>2.045917969313209</v>
-      </c>
-      <c r="K22">
-        <v>7.776962102520216</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1335,34 +1335,34 @@
         <v>31</v>
       </c>
       <c r="B23">
+        <v>0.1807020992563692</v>
+      </c>
+      <c r="C23">
         <v>-0.3099079440213436</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>-0.2335709875062256</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.5577048529115168</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.3664290124937744</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.0785751317026247</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.970759272447695</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-0.1519263646769636</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>2.066429012493774</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>7.797473145700781</v>
-      </c>
-      <c r="K23">
-        <v>-4.162972625597543</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1370,34 +1370,34 @@
         <v>32</v>
       </c>
       <c r="B24">
+        <v>-0.3510717725756539</v>
+      </c>
+      <c r="C24">
         <v>-0.274734816060536</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.5165410243572065</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.3252651839394641</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.03741130314831437</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.9295954438933847</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>-0.193090193231274</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>2.025265183939464</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>7.756309317146471</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-4.204136454151854</v>
-      </c>
-      <c r="K24">
-        <v>1.415777920335853</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1405,34 +1405,34 @@
         <v>33</v>
       </c>
       <c r="B25">
+        <v>-0.2781682889219415</v>
+      </c>
+      <c r="C25">
         <v>0.513107551495801</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.3218317110780586</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.03397783028690887</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0.9261619710319792</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>-0.1965236660926795</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>2.021831711078058</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>7.752875844285065</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-4.207569927013259</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>1.412344447474447</v>
-      </c>
-      <c r="K25">
-        <v>2.564525492360269</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1440,34 +1440,34 @@
         <v>34</v>
       </c>
       <c r="B26">
+        <v>0.5085587728936921</v>
+      </c>
+      <c r="C26">
         <v>0.3172829324759497</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.02942905168479998</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.9216131924298703</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>-0.2010724446947884</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>2.01728293247595</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>7.748327065682957</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-4.212118705615368</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>1.407795668872338</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>2.559976713758159</v>
-      </c>
-      <c r="K26">
-        <v>-1.575741703689701</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1475,34 +1475,34 @@
         <v>35</v>
       </c>
       <c r="B27">
+        <v>0.3133208880183742</v>
+      </c>
+      <c r="C27">
         <v>0.02546700722722445</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.9176511479722947</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>-0.2050344891523639</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>2.013320888018374</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>7.744365021225381</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-4.216080750072944</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1.403833624414763</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>2.556014669300584</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-1.579703748147277</v>
-      </c>
-      <c r="K27">
-        <v>-0.5852146589380238</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1510,34 +1510,34 @@
         <v>36</v>
       </c>
       <c r="B28">
+        <v>-0.01261575485689664</v>
+      </c>
+      <c r="C28">
         <v>0.8795683858881737</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-0.243117251236485</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1.975238125934253</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>7.70628225914126</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-4.254163512157064</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1.365750862330642</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>2.517931907216463</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-1.617786510231398</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-0.6232974210221449</v>
-      </c>
-      <c r="K28">
-        <v>0.9469556731914952</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1545,34 +1545,34 @@
         <v>37</v>
       </c>
       <c r="B29">
+        <v>0.8476681880362635</v>
+      </c>
+      <c r="C29">
         <v>-0.2750174490883951</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>1.943337928082343</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>7.67438206128935</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-4.286063710008975</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>1.333850664478731</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>2.486031709364553</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-1.649686708083308</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-0.6551976188740551</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>0.915055475339585</v>
-      </c>
-      <c r="K29">
-        <v>-0.4967925325930198</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1580,34 +1580,34 @@
         <v>38</v>
       </c>
       <c r="B30">
+        <v>-0.3570650086917467</v>
+      </c>
+      <c r="C30">
         <v>1.861290368478991</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>7.592334501685999</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-4.368111269612326</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>1.25180310487538</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>2.403984149761201</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-1.73173426768666</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-0.7372451784774067</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.8330079157362333</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-0.5788400921963713</v>
-      </c>
-      <c r="K30">
-        <v>-0.2779821363347551</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1615,34 +1615,34 @@
         <v>39</v>
       </c>
       <c r="B31">
+        <v>1.804002690583489</v>
+      </c>
+      <c r="C31">
         <v>7.535046823790496</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-4.425398947507829</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>1.194515426979877</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>2.346696471865699</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-1.789021945582162</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-0.794532856372909</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>0.7757202378407311</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-0.6361277700918737</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-0.3352698142302574</v>
-      </c>
-      <c r="K31">
-        <v>0.2404297247762355</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1650,34 +1650,34 @@
         <v>40</v>
       </c>
       <c r="B32">
+        <v>7.339196362909364</v>
+      </c>
+      <c r="C32">
         <v>-4.621249408388961</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>0.9986649660987458</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>2.150846010984567</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-1.984872406463294</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-0.9903833172540407</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>0.5798697769595994</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-0.8319782309730054</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-0.5311202751113892</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>0.04457926389510383</v>
-      </c>
-      <c r="K32">
-        <v>1.120319100747325</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
+        <v>-4.885081274858506</v>
+      </c>
+      <c r="C33">
         <v>0.7348330996292001</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>1.887014144515021</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>-2.248704272932839</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>-1.254215183723586</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.3160379104900537</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>-1.095810097442551</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>-0.7949521415809349</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>-0.2192526025744419</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>0.8564872342777796</v>
-      </c>
-      <c r="K33">
-        <v>0.4146830629741638</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
+        <v>0.5754986943797342</v>
+      </c>
+      <c r="C34">
         <v>1.727679739265556</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>-2.408038678182305</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>-1.413549588973052</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.1567035052405878</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>-1.255144502692017</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>-0.9542865468304007</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>-0.3785870078239077</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.6971528290283138</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>0.255348657724698</v>
-      </c>
-      <c r="K34">
-        <v>-0.554424174598933</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,34 +1755,31 @@
         <v>43</v>
       </c>
       <c r="B35">
+        <v>1.518189050919266</v>
+      </c>
+      <c r="C35">
         <v>-2.617529366528595</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>-1.623040277319342</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>-0.05278718310570191</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>-1.464635191038307</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>-1.16377723517669</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>-0.5880776961701975</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>0.4876621406820241</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>0.04585796937840825</v>
-      </c>
-      <c r="J35">
-        <v>-0.7639148629452228</v>
-      </c>
-      <c r="K35">
-        <v>-0.4837834155594101</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1790,34 +1787,28 @@
         <v>44</v>
       </c>
       <c r="B36">
+        <v>-2.34323931269667</v>
+      </c>
+      <c r="C36">
         <v>-1.348750223487417</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.2215028707262228</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>-1.190345137206382</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>-0.8894871813447658</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>-0.3137876423382728</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>0.7619521945139487</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>0.3201480232103329</v>
-      </c>
-      <c r="I36">
-        <v>-0.4896248091132981</v>
-      </c>
-      <c r="J36">
-        <v>-0.2094933617274854</v>
-      </c>
-      <c r="K36">
-        <v>-0.1706262964982734</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1825,34 +1816,25 @@
         <v>45</v>
       </c>
       <c r="B37">
+        <v>-1.227214617038684</v>
+      </c>
+      <c r="C37">
         <v>0.3430384771749563</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>-1.068809530757648</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>-0.7679515748960322</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>-0.1922520358895393</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>0.8834878009626823</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>0.4416836296590664</v>
-      </c>
-      <c r="H37">
-        <v>-0.3680892026645646</v>
-      </c>
-      <c r="I37">
-        <v>-0.08795775527875188</v>
-      </c>
-      <c r="J37">
-        <v>-0.04909069004953986</v>
-      </c>
-      <c r="K37">
-        <v>-0.1578029031647797</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1860,34 +1842,22 @@
         <v>46</v>
       </c>
       <c r="B38">
+        <v>0.4190656605323415</v>
+      </c>
+      <c r="C38">
         <v>-0.9927823474002633</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>-0.691924391538647</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>-0.1162248525321541</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>0.9595149843200674</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>0.5177108130164516</v>
-      </c>
-      <c r="G38">
-        <v>-0.2920620193071795</v>
-      </c>
-      <c r="H38">
-        <v>-0.01193057192136671</v>
-      </c>
-      <c r="I38">
-        <v>0.02693649330784531</v>
-      </c>
-      <c r="J38">
-        <v>-0.08177571980739451</v>
-      </c>
-      <c r="K38">
-        <v>0.07847466266709269</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1895,34 +1865,19 @@
         <v>47</v>
       </c>
       <c r="B39">
+        <v>-0.8909591701118866</v>
+      </c>
+      <c r="C39">
         <v>-0.5901012142502704</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>-0.01440167524377749</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>1.061338161608444</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>0.6195339903048283</v>
-      </c>
-      <c r="F39">
-        <v>-0.1902388420188028</v>
-      </c>
-      <c r="G39">
-        <v>0.08989260536700988</v>
-      </c>
-      <c r="H39">
-        <v>0.1287596705962219</v>
-      </c>
-      <c r="I39">
-        <v>0.02004745748098209</v>
-      </c>
-      <c r="J39">
-        <v>0.1802978399554693</v>
-      </c>
-      <c r="K39">
-        <v>0.08824597434100419</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1930,34 +1885,16 @@
         <v>48</v>
       </c>
       <c r="B40">
+        <v>-0.4561778204701114</v>
+      </c>
+      <c r="C40">
         <v>0.1195217185363816</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>1.195261555388603</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>0.7534573840849873</v>
-      </c>
-      <c r="E40">
-        <v>-0.05631544823864371</v>
-      </c>
-      <c r="F40">
-        <v>0.223815999147169</v>
-      </c>
-      <c r="G40">
-        <v>0.262683064376381</v>
-      </c>
-      <c r="H40">
-        <v>0.1539708512611412</v>
-      </c>
-      <c r="I40">
-        <v>0.3142212337356284</v>
-      </c>
-      <c r="J40">
-        <v>0.2221693681211633</v>
-      </c>
-      <c r="K40">
-        <v>0.005962229842614908</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1965,34 +1902,13 @@
         <v>49</v>
       </c>
       <c r="B41">
+        <v>0.1951753973389203</v>
+      </c>
+      <c r="C41">
         <v>1.270915234191142</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>0.829111062887526</v>
-      </c>
-      <c r="D41">
-        <v>0.01933823056389491</v>
-      </c>
-      <c r="E41">
-        <v>0.2994696779497076</v>
-      </c>
-      <c r="F41">
-        <v>0.3383367431789197</v>
-      </c>
-      <c r="G41">
-        <v>0.2296245300636798</v>
-      </c>
-      <c r="H41">
-        <v>0.389874912538167</v>
-      </c>
-      <c r="I41">
-        <v>0.2978230469237019</v>
-      </c>
-      <c r="J41">
-        <v>0.08161590864515353</v>
-      </c>
-      <c r="K41">
-        <v>-0.235904777795065</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2000,34 +1916,10 @@
         <v>50</v>
       </c>
       <c r="B42">
+        <v>1.952798380254255</v>
+      </c>
+      <c r="C42">
         <v>1.510994208950639</v>
-      </c>
-      <c r="C42">
-        <v>0.7012213766270079</v>
-      </c>
-      <c r="D42">
-        <v>0.9813528240128206</v>
-      </c>
-      <c r="E42">
-        <v>1.020219889242033</v>
-      </c>
-      <c r="F42">
-        <v>0.9115076761267928</v>
-      </c>
-      <c r="G42">
-        <v>1.07175805860128</v>
-      </c>
-      <c r="H42">
-        <v>0.9797061929868149</v>
-      </c>
-      <c r="I42">
-        <v>0.7634990547082665</v>
-      </c>
-      <c r="J42">
-        <v>0.445978368268048</v>
-      </c>
-      <c r="K42">
-        <v>0.7382033714796037</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2035,217 +1927,55 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.1561095147536435</v>
-      </c>
-      <c r="C43">
-        <v>0.4362409621394562</v>
-      </c>
-      <c r="D43">
-        <v>0.4751080273686683</v>
-      </c>
-      <c r="E43">
-        <v>0.3663958142534284</v>
-      </c>
-      <c r="F43">
-        <v>0.5266461967279157</v>
-      </c>
-      <c r="G43">
-        <v>0.4345943311134505</v>
-      </c>
-      <c r="H43">
-        <v>0.2183871928349021</v>
-      </c>
-      <c r="I43">
-        <v>-0.09913349360531637</v>
-      </c>
-      <c r="J43">
-        <v>0.1930915096062393</v>
-      </c>
-      <c r="K43">
-        <v>0.1869462612655383</v>
+        <v>0.9658823470772746</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B44">
-        <v>0.4359124617055215</v>
-      </c>
-      <c r="C44">
-        <v>0.4747795269347335</v>
-      </c>
-      <c r="D44">
-        <v>0.3660673138194937</v>
-      </c>
-      <c r="E44">
-        <v>0.5263176962939808</v>
-      </c>
-      <c r="F44">
-        <v>0.4342658306795158</v>
-      </c>
-      <c r="G44">
-        <v>0.2180586924009674</v>
-      </c>
-      <c r="H44">
-        <v>-0.0994619940392511</v>
-      </c>
-      <c r="I44">
-        <v>0.1927630091723046</v>
-      </c>
-      <c r="J44">
-        <v>0.1866177608316036</v>
-      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B45">
-        <v>0.588073789631386</v>
-      </c>
-      <c r="C45">
-        <v>0.4793615765161462</v>
-      </c>
-      <c r="D45">
-        <v>0.6396119589906334</v>
-      </c>
-      <c r="E45">
-        <v>0.5475600933761683</v>
-      </c>
-      <c r="F45">
-        <v>0.3313529550976199</v>
-      </c>
-      <c r="G45">
-        <v>0.01383226865740139</v>
-      </c>
-      <c r="H45">
-        <v>0.3060572718689571</v>
-      </c>
-      <c r="I45">
-        <v>0.2999120235282561</v>
-      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B46">
-        <v>0.1956508791119575</v>
-      </c>
-      <c r="C46">
-        <v>0.3559012615864447</v>
-      </c>
-      <c r="D46">
-        <v>0.2638493959719796</v>
-      </c>
-      <c r="E46">
-        <v>0.04764225769343119</v>
-      </c>
-      <c r="F46">
-        <v>-0.2698784287467873</v>
-      </c>
-      <c r="G46">
-        <v>0.0223465744647684</v>
-      </c>
-      <c r="H46">
-        <v>0.01620132612406738</v>
-      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B47">
-        <v>0.1455310855428081</v>
-      </c>
-      <c r="C47">
-        <v>0.05347921992834301</v>
-      </c>
-      <c r="D47">
-        <v>-0.1627279183502054</v>
-      </c>
-      <c r="E47">
-        <v>-0.4802486047904239</v>
-      </c>
-      <c r="F47">
-        <v>-0.1880236015788682</v>
-      </c>
-      <c r="G47">
-        <v>-0.1941688499195692</v>
-      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B48">
-        <v>0.05627781145257414</v>
-      </c>
-      <c r="C48">
-        <v>-0.1599293268259743</v>
-      </c>
-      <c r="D48">
-        <v>-0.4774500132661927</v>
-      </c>
-      <c r="E48">
-        <v>-0.1852250100546371</v>
-      </c>
-      <c r="F48">
-        <v>-0.1913702583953381</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B49">
-        <v>-0.2565155703168258</v>
-      </c>
-      <c r="C49">
-        <v>-0.5740362567570443</v>
-      </c>
-      <c r="D49">
-        <v>-0.2818112535454886</v>
-      </c>
-      <c r="E49">
-        <v>-0.2879565018861897</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B50">
-        <v>-0.4995169237785178</v>
-      </c>
-      <c r="C50">
-        <v>-0.2072919205669621</v>
-      </c>
-      <c r="D50">
-        <v>-0.2134371689076631</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B51">
-        <v>-0.1459269121925572</v>
-      </c>
-      <c r="C51">
-        <v>-0.1520721605332582</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B52">
-        <v>-0.1394382194478382</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/DOMUSE/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -1397,7 +1397,7 @@
         <v>7.756309317146471</v>
       </c>
       <c r="K24">
-        <v>-4.204136454151854</v>
+        <v>-4.140068527788461</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1429,10 +1429,10 @@
         <v>7.752875844285065</v>
       </c>
       <c r="J25">
-        <v>-4.207569927013259</v>
+        <v>-4.143502000649867</v>
       </c>
       <c r="K25">
-        <v>1.412344447474447</v>
+        <v>0.7890573502134768</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1461,13 +1461,13 @@
         <v>7.748327065682957</v>
       </c>
       <c r="I26">
-        <v>-4.212118705615368</v>
+        <v>-4.148050779251975</v>
       </c>
       <c r="J26">
-        <v>1.407795668872338</v>
+        <v>0.7845085716113679</v>
       </c>
       <c r="K26">
-        <v>2.559976713758159</v>
+        <v>1.78685138562497</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1493,16 +1493,16 @@
         <v>7.744365021225381</v>
       </c>
       <c r="H27">
-        <v>-4.216080750072944</v>
+        <v>-4.152012823709551</v>
       </c>
       <c r="I27">
-        <v>1.403833624414763</v>
+        <v>0.7805465271537924</v>
       </c>
       <c r="J27">
-        <v>2.556014669300584</v>
+        <v>1.782889341167394</v>
       </c>
       <c r="K27">
-        <v>-1.579703748147277</v>
+        <v>-1.836796412571299</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1525,19 +1525,19 @@
         <v>7.70628225914126</v>
       </c>
       <c r="G28">
-        <v>-4.254163512157064</v>
+        <v>-4.190095585793672</v>
       </c>
       <c r="H28">
-        <v>1.365750862330642</v>
+        <v>0.7424637650696713</v>
       </c>
       <c r="I28">
-        <v>2.517931907216463</v>
+        <v>1.744806579083273</v>
       </c>
       <c r="J28">
-        <v>-1.617786510231398</v>
+        <v>-1.87487917465542</v>
       </c>
       <c r="K28">
-        <v>-0.6232974210221449</v>
+        <v>-1.555883901694814</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1557,22 +1557,22 @@
         <v>7.67438206128935</v>
       </c>
       <c r="F29">
-        <v>-4.286063710008975</v>
+        <v>-4.221995783645582</v>
       </c>
       <c r="G29">
-        <v>1.333850664478731</v>
+        <v>0.710563567217761</v>
       </c>
       <c r="H29">
-        <v>2.486031709364553</v>
+        <v>1.712906381231363</v>
       </c>
       <c r="I29">
-        <v>-1.649686708083308</v>
+        <v>-1.90677937250733</v>
       </c>
       <c r="J29">
-        <v>-0.6551976188740551</v>
+        <v>-1.587784099546724</v>
       </c>
       <c r="K29">
-        <v>0.915055475339585</v>
+        <v>0.9930956379036073</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1589,25 +1589,25 @@
         <v>7.592334501685999</v>
       </c>
       <c r="E30">
-        <v>-4.368111269612326</v>
+        <v>-4.304043343248933</v>
       </c>
       <c r="F30">
-        <v>1.25180310487538</v>
+        <v>0.6285160076144095</v>
       </c>
       <c r="G30">
-        <v>2.403984149761201</v>
+        <v>1.630858821628011</v>
       </c>
       <c r="H30">
-        <v>-1.73173426768666</v>
+        <v>-1.988826932110682</v>
       </c>
       <c r="I30">
-        <v>-0.7372451784774067</v>
+        <v>-1.669831659150076</v>
       </c>
       <c r="J30">
-        <v>0.8330079157362333</v>
+        <v>0.9110480783002558</v>
       </c>
       <c r="K30">
-        <v>-0.5788400921963713</v>
+        <v>-1.413911231055208</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1621,28 +1621,28 @@
         <v>7.535046823790496</v>
       </c>
       <c r="D31">
-        <v>-4.425398947507829</v>
+        <v>-4.361331021144436</v>
       </c>
       <c r="E31">
-        <v>1.194515426979877</v>
+        <v>0.5712283297189071</v>
       </c>
       <c r="F31">
-        <v>2.346696471865699</v>
+        <v>1.573571143732509</v>
       </c>
       <c r="G31">
-        <v>-1.789021945582162</v>
+        <v>-2.046114610006184</v>
       </c>
       <c r="H31">
-        <v>-0.794532856372909</v>
+        <v>-1.727119337045578</v>
       </c>
       <c r="I31">
-        <v>0.7757202378407311</v>
+        <v>0.8537604004047534</v>
       </c>
       <c r="J31">
-        <v>-0.6361277700918737</v>
+        <v>-1.47119890895071</v>
       </c>
       <c r="K31">
-        <v>-0.3352698142302574</v>
+        <v>-0.4159398956771542</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1653,31 +1653,31 @@
         <v>7.339196362909364</v>
       </c>
       <c r="C32">
-        <v>-4.621249408388961</v>
+        <v>-4.557181482025568</v>
       </c>
       <c r="D32">
-        <v>0.9986649660987458</v>
+        <v>0.3753778688377755</v>
       </c>
       <c r="E32">
-        <v>2.150846010984567</v>
+        <v>1.377720682851377</v>
       </c>
       <c r="F32">
-        <v>-1.984872406463294</v>
+        <v>-2.241965070887316</v>
       </c>
       <c r="G32">
-        <v>-0.9903833172540407</v>
+        <v>-1.92296979792671</v>
       </c>
       <c r="H32">
-        <v>0.5798697769595994</v>
+        <v>0.6579099395236218</v>
       </c>
       <c r="I32">
-        <v>-0.8319782309730054</v>
+        <v>-1.667049369831842</v>
       </c>
       <c r="J32">
-        <v>-0.5311202751113892</v>
+        <v>-0.611790356558286</v>
       </c>
       <c r="K32">
-        <v>0.04457926389510383</v>
+        <v>-0.3935002837000762</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-4.885081274858506</v>
+        <v>-5.278233986760878</v>
       </c>
       <c r="C33">
-        <v>0.7348330996292001</v>
+        <v>-0.3456746358975342</v>
       </c>
       <c r="D33">
-        <v>1.887014144515021</v>
+        <v>0.6566681781160675</v>
       </c>
       <c r="E33">
-        <v>-2.248704272932839</v>
+        <v>-2.963017575622626</v>
       </c>
       <c r="F33">
-        <v>-1.254215183723586</v>
+        <v>-2.64402230266202</v>
       </c>
       <c r="G33">
-        <v>0.3160379104900537</v>
+        <v>-0.06314256521168793</v>
       </c>
       <c r="H33">
-        <v>-1.095810097442551</v>
+        <v>-2.388101874567151</v>
       </c>
       <c r="I33">
-        <v>-0.7949521415809349</v>
+        <v>-1.332842861293596</v>
       </c>
       <c r="J33">
-        <v>-0.2192526025744419</v>
+        <v>-1.114552788435386</v>
       </c>
       <c r="K33">
-        <v>0.8564872342777796</v>
+        <v>-0.02381999081273611</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0.5754986943797342</v>
+        <v>0.1209180521064689</v>
       </c>
       <c r="C34">
-        <v>1.727679739265556</v>
+        <v>1.12326086612007</v>
       </c>
       <c r="D34">
-        <v>-2.408038678182305</v>
+        <v>-2.496424887618622</v>
       </c>
       <c r="E34">
-        <v>-1.413549588973052</v>
+        <v>-2.177429614658016</v>
       </c>
       <c r="F34">
-        <v>0.1567035052405878</v>
+        <v>0.4034501227923152</v>
       </c>
       <c r="G34">
-        <v>-1.255144502692017</v>
+        <v>-1.921509186563148</v>
       </c>
       <c r="H34">
-        <v>-0.9542865468304007</v>
+        <v>-0.8662501732895925</v>
       </c>
       <c r="I34">
-        <v>-0.3785870078239077</v>
+        <v>-0.6479601004313827</v>
       </c>
       <c r="J34">
-        <v>0.6971528290283138</v>
+        <v>0.442772697191267</v>
       </c>
       <c r="K34">
-        <v>0.255348657724698</v>
+        <v>0.8594960153664678</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,31 +1755,34 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>1.518189050919266</v>
+        <v>1.017201315193215</v>
       </c>
       <c r="C35">
-        <v>-2.617529366528595</v>
+        <v>-2.602484438545478</v>
       </c>
       <c r="D35">
-        <v>-1.623040277319342</v>
+        <v>-2.283489165584871</v>
       </c>
       <c r="E35">
-        <v>-0.05278718310570191</v>
+        <v>0.29739057186546</v>
       </c>
       <c r="F35">
-        <v>-1.464635191038307</v>
+        <v>-2.027568737490003</v>
       </c>
       <c r="G35">
-        <v>-1.16377723517669</v>
+        <v>-0.9723097242164478</v>
       </c>
       <c r="H35">
-        <v>-0.5880776961701975</v>
+        <v>-0.754019651358238</v>
       </c>
       <c r="I35">
-        <v>0.4876621406820241</v>
+        <v>0.3367131462644118</v>
       </c>
       <c r="J35">
-        <v>0.04585796937840825</v>
+        <v>0.7534364644396125</v>
+      </c>
+      <c r="K35">
+        <v>-0.8313463317717158</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1787,28 +1790,34 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-2.34323931269667</v>
+        <v>-2.767155053718898</v>
       </c>
       <c r="C36">
-        <v>-1.348750223487417</v>
+        <v>-2.448159780758292</v>
       </c>
       <c r="D36">
-        <v>0.2215028707262228</v>
+        <v>0.1327199566920393</v>
       </c>
       <c r="E36">
-        <v>-1.190345137206382</v>
+        <v>-2.192239352663424</v>
       </c>
       <c r="F36">
-        <v>-0.8894871813447658</v>
+        <v>-1.136980339389869</v>
       </c>
       <c r="G36">
-        <v>-0.3137876423382728</v>
+        <v>-0.9186902665316586</v>
       </c>
       <c r="H36">
-        <v>0.7619521945139487</v>
+        <v>0.1720425310909911</v>
       </c>
       <c r="I36">
-        <v>0.3201480232103329</v>
+        <v>0.5887658492661919</v>
+      </c>
+      <c r="J36">
+        <v>-0.9960169469451364</v>
+      </c>
+      <c r="K36">
+        <v>-0.04879898327473942</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1816,25 +1825,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>-1.227214617038684</v>
+        <v>-2.239654652406992</v>
       </c>
       <c r="C37">
-        <v>0.3430384771749563</v>
+        <v>0.341225085043339</v>
       </c>
       <c r="D37">
-        <v>-1.068809530757648</v>
+        <v>-1.983734224312125</v>
       </c>
       <c r="E37">
-        <v>-0.7679515748960322</v>
+        <v>-0.9284752110385688</v>
       </c>
       <c r="F37">
-        <v>-0.1922520358895393</v>
+        <v>-0.710185138180359</v>
       </c>
       <c r="G37">
-        <v>0.8834878009626823</v>
+        <v>0.3805476594422908</v>
       </c>
       <c r="H37">
-        <v>0.4416836296590664</v>
+        <v>0.7972709776174915</v>
+      </c>
+      <c r="I37">
+        <v>-0.7875118185938368</v>
+      </c>
+      <c r="J37">
+        <v>0.1597061450765603</v>
+      </c>
+      <c r="K37">
+        <v>0.08001204887913171</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1842,22 +1860,34 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0.4190656605323415</v>
+        <v>0.574277577822088</v>
       </c>
       <c r="C38">
-        <v>-0.9927823474002633</v>
+        <v>-1.750681731533375</v>
       </c>
       <c r="D38">
-        <v>-0.691924391538647</v>
+        <v>-0.6954227182598197</v>
       </c>
       <c r="E38">
-        <v>-0.1162248525321541</v>
+        <v>-0.4771326454016099</v>
       </c>
       <c r="F38">
-        <v>0.9595149843200674</v>
+        <v>0.6136001522210398</v>
       </c>
       <c r="G38">
-        <v>0.5177108130164516</v>
+        <v>1.030323470396241</v>
+      </c>
+      <c r="H38">
+        <v>-0.5544593258150877</v>
+      </c>
+      <c r="I38">
+        <v>0.3927586378553093</v>
+      </c>
+      <c r="J38">
+        <v>0.3130645416578807</v>
+      </c>
+      <c r="K38">
+        <v>0.02451986800082353</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1865,19 +1895,34 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.8909591701118866</v>
+        <v>-1.870043355038259</v>
       </c>
       <c r="C39">
-        <v>-0.5901012142502704</v>
+        <v>-0.8147843417647035</v>
       </c>
       <c r="D39">
-        <v>-0.01440167524377749</v>
+        <v>-0.5964942689064937</v>
       </c>
       <c r="E39">
-        <v>1.061338161608444</v>
+        <v>0.494238528716156</v>
       </c>
       <c r="F39">
-        <v>0.6195339903048283</v>
+        <v>0.9109618468913568</v>
+      </c>
+      <c r="G39">
+        <v>-0.6738209493199715</v>
+      </c>
+      <c r="H39">
+        <v>0.2733970143504255</v>
+      </c>
+      <c r="I39">
+        <v>0.193702918152997</v>
+      </c>
+      <c r="J39">
+        <v>-0.09484175550406024</v>
+      </c>
+      <c r="K39">
+        <v>-0.1043830804051818</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1885,16 +1930,34 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.4561778204701114</v>
+        <v>-0.5707751523983828</v>
       </c>
       <c r="C40">
-        <v>0.1195217185363816</v>
+        <v>-0.3524850795401731</v>
       </c>
       <c r="D40">
-        <v>1.195261555388603</v>
+        <v>0.7382477180824767</v>
       </c>
       <c r="E40">
-        <v>0.7534573840849873</v>
+        <v>1.154971036257677</v>
+      </c>
+      <c r="F40">
+        <v>-0.4298117599536508</v>
+      </c>
+      <c r="G40">
+        <v>0.5174062037167462</v>
+      </c>
+      <c r="H40">
+        <v>0.4377121075193176</v>
+      </c>
+      <c r="I40">
+        <v>0.1491674338622604</v>
+      </c>
+      <c r="J40">
+        <v>0.1396261089611388</v>
+      </c>
+      <c r="K40">
+        <v>-0.8797011412147235</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1902,13 +1965,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0.1951753973389203</v>
+        <v>-0.3465490807841718</v>
       </c>
       <c r="C41">
-        <v>1.270915234191142</v>
+        <v>0.7441837168384779</v>
       </c>
       <c r="D41">
-        <v>0.829111062887526</v>
+        <v>1.160907035013679</v>
+      </c>
+      <c r="E41">
+        <v>-0.4238757611976496</v>
+      </c>
+      <c r="F41">
+        <v>0.5233422024727474</v>
+      </c>
+      <c r="G41">
+        <v>0.4436481062753188</v>
+      </c>
+      <c r="H41">
+        <v>0.1551034326182616</v>
+      </c>
+      <c r="I41">
+        <v>0.14556210771714</v>
+      </c>
+      <c r="J41">
+        <v>-0.8737651424587223</v>
+      </c>
+      <c r="K41">
+        <v>-0.8519563250702333</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1916,10 +2000,34 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>1.952798380254255</v>
+        <v>0.8662498299576697</v>
       </c>
       <c r="C42">
-        <v>1.510994208950639</v>
+        <v>1.282973148132871</v>
+      </c>
+      <c r="D42">
+        <v>-0.3018096480784578</v>
+      </c>
+      <c r="E42">
+        <v>0.6454083155919392</v>
+      </c>
+      <c r="F42">
+        <v>0.5657142193945106</v>
+      </c>
+      <c r="G42">
+        <v>0.2771695457374534</v>
+      </c>
+      <c r="H42">
+        <v>0.2676282208363318</v>
+      </c>
+      <c r="I42">
+        <v>-0.7516990293395305</v>
+      </c>
+      <c r="J42">
+        <v>-0.7298902119510415</v>
+      </c>
+      <c r="K42">
+        <v>0.8090800184609777</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1927,55 +2035,217 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.9658823470772746</v>
+        <v>1.963967031984447</v>
+      </c>
+      <c r="C43">
+        <v>0.3791842357731184</v>
+      </c>
+      <c r="D43">
+        <v>1.326402199443515</v>
+      </c>
+      <c r="E43">
+        <v>1.246708103246087</v>
+      </c>
+      <c r="F43">
+        <v>0.9581634295890297</v>
+      </c>
+      <c r="G43">
+        <v>0.9486221046879081</v>
+      </c>
+      <c r="H43">
+        <v>-0.07070514548795426</v>
+      </c>
+      <c r="I43">
+        <v>-0.04889632809946531</v>
+      </c>
+      <c r="J43">
+        <v>1.490073902312554</v>
+      </c>
+      <c r="K43">
+        <v>0.5380735621110603</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B44">
+        <v>-0.2239305827602892</v>
+      </c>
+      <c r="C44">
+        <v>0.7232873809101079</v>
+      </c>
+      <c r="D44">
+        <v>0.6435932847126793</v>
+      </c>
+      <c r="E44">
+        <v>0.3550486110556221</v>
+      </c>
+      <c r="F44">
+        <v>0.3455072861545005</v>
+      </c>
+      <c r="G44">
+        <v>-0.6738199640213618</v>
+      </c>
+      <c r="H44">
+        <v>-0.6520111466328729</v>
+      </c>
+      <c r="I44">
+        <v>0.8869590837791463</v>
+      </c>
+      <c r="J44">
+        <v>-0.06504125642234732</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B45">
+        <v>0.7958897816072067</v>
+      </c>
+      <c r="C45">
+        <v>0.7161956854097782</v>
+      </c>
+      <c r="D45">
+        <v>0.4276510117527209</v>
+      </c>
+      <c r="E45">
+        <v>0.4181096868515993</v>
+      </c>
+      <c r="F45">
+        <v>-0.601217563324263</v>
+      </c>
+      <c r="G45">
+        <v>-0.5794087459357741</v>
+      </c>
+      <c r="H45">
+        <v>0.9595614844762451</v>
+      </c>
+      <c r="I45">
+        <v>0.007561144274751519</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B46">
+        <v>0.7786460178510652</v>
+      </c>
+      <c r="C46">
+        <v>0.490101344194008</v>
+      </c>
+      <c r="D46">
+        <v>0.4805600192928864</v>
+      </c>
+      <c r="E46">
+        <v>-0.5387672308829758</v>
+      </c>
+      <c r="F46">
+        <v>-0.5169584134944869</v>
+      </c>
+      <c r="G46">
+        <v>1.022011816917532</v>
+      </c>
+      <c r="H46">
+        <v>0.07001147671603863</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B47">
+        <v>0.2008399526861098</v>
+      </c>
+      <c r="C47">
+        <v>0.1912986277849882</v>
+      </c>
+      <c r="D47">
+        <v>-0.8280286223908742</v>
+      </c>
+      <c r="E47">
+        <v>-0.8062198050023852</v>
+      </c>
+      <c r="F47">
+        <v>0.732750425409634</v>
+      </c>
+      <c r="G47">
+        <v>-0.2192499147918596</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>-0.02682703805890724</v>
+      </c>
+      <c r="C48">
+        <v>-1.04615428823477</v>
+      </c>
+      <c r="D48">
+        <v>-1.024345470846281</v>
+      </c>
+      <c r="E48">
+        <v>0.5146247595657385</v>
+      </c>
+      <c r="F48">
+        <v>-0.437375580635755</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>-0.9928286439961705</v>
+      </c>
+      <c r="C49">
+        <v>-0.9710198266076816</v>
+      </c>
+      <c r="D49">
+        <v>0.5679504038043376</v>
+      </c>
+      <c r="E49">
+        <v>-0.384049936397156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>-0.970113206870677</v>
+      </c>
+      <c r="C50">
+        <v>0.5688570235413422</v>
+      </c>
+      <c r="D50">
+        <v>-0.3831433166601514</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>0.6286205760598051</v>
+      </c>
+      <c r="C51">
+        <v>-0.3233797641416885</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>-0.4742879390039576</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/DOMUSE/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -614,21 +614,6 @@
       <c r="F2">
         <v>0.5349913200561616</v>
       </c>
-      <c r="G2">
-        <v>2.211722360974275</v>
-      </c>
-      <c r="H2">
-        <v>1.894762380026902</v>
-      </c>
-      <c r="I2">
-        <v>-0.7816064405093242</v>
-      </c>
-      <c r="J2">
-        <v>1.947029252558591</v>
-      </c>
-      <c r="K2">
-        <v>-0.9050437920527683</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -655,15 +640,6 @@
       <c r="H3">
         <v>1.933912343293062</v>
       </c>
-      <c r="I3">
-        <v>-0.9181607013182966</v>
-      </c>
-      <c r="J3">
-        <v>-1.474643948128471</v>
-      </c>
-      <c r="K3">
-        <v>0.06376446957187337</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
@@ -684,21 +660,6 @@
       <c r="F4">
         <v>1.880425536475418</v>
       </c>
-      <c r="G4">
-        <v>-0.9716475081359414</v>
-      </c>
-      <c r="H4">
-        <v>-1.528130754946115</v>
-      </c>
-      <c r="I4">
-        <v>0.0102776627542287</v>
-      </c>
-      <c r="J4">
-        <v>0.5739118209866977</v>
-      </c>
-      <c r="K4">
-        <v>-0.6695527306724042</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
@@ -725,15 +686,6 @@
       <c r="H5">
         <v>0.2271437981882656</v>
       </c>
-      <c r="I5">
-        <v>-1.016320753470836</v>
-      </c>
-      <c r="J5">
-        <v>-0.1364903600442034</v>
-      </c>
-      <c r="K5">
-        <v>-0.3364903600442034</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
@@ -754,21 +706,6 @@
       <c r="F6">
         <v>0.1516956784131978</v>
       </c>
-      <c r="G6">
-        <v>-1.091768873245904</v>
-      </c>
-      <c r="H6">
-        <v>-0.2119384798192712</v>
-      </c>
-      <c r="I6">
-        <v>-0.4119384798192712</v>
-      </c>
-      <c r="J6">
-        <v>-0.2423061614850539</v>
-      </c>
-      <c r="K6">
-        <v>0.2880615201807288</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
@@ -795,15 +732,6 @@
       <c r="H7">
         <v>-0.265258679515199</v>
       </c>
-      <c r="I7">
-        <v>0.2651090021505836</v>
-      </c>
-      <c r="J7">
-        <v>0.369671650915066</v>
-      </c>
-      <c r="K7">
-        <v>-0.03489099784941634</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
@@ -824,21 +752,6 @@
       <c r="F8">
         <v>-0.1556403557966283</v>
       </c>
-      <c r="G8">
-        <v>0.3747273258691544</v>
-      </c>
-      <c r="H8">
-        <v>0.4792899746336368</v>
-      </c>
-      <c r="I8">
-        <v>0.07472732586915437</v>
-      </c>
-      <c r="J8">
-        <v>0.09319939187384502</v>
-      </c>
-      <c r="K8">
-        <v>0.06549133968989135</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
@@ -865,15 +778,6 @@
       <c r="H9">
         <v>0.2044084200273134</v>
       </c>
-      <c r="I9">
-        <v>0.1767003678433597</v>
-      </c>
-      <c r="J9">
-        <v>-0.200411142034703</v>
-      </c>
-      <c r="K9">
-        <v>-0.5104834403419503</v>
-      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
@@ -894,21 +798,6 @@
       <c r="F10">
         <v>0.433547907880927</v>
       </c>
-      <c r="G10">
-        <v>0.4058398556969733</v>
-      </c>
-      <c r="H10">
-        <v>0.02872834581891059</v>
-      </c>
-      <c r="I10">
-        <v>-0.2813439524883366</v>
-      </c>
-      <c r="J10">
-        <v>0.7334008434464379</v>
-      </c>
-      <c r="K10">
-        <v>-1.437110315281837</v>
-      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
@@ -935,15 +824,6 @@
       <c r="H11">
         <v>0.7882897853458926</v>
       </c>
-      <c r="I11">
-        <v>-1.382221373382382</v>
-      </c>
-      <c r="J11">
-        <v>0.6426575059330984</v>
-      </c>
-      <c r="K11">
-        <v>0.6429625445525287</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
@@ -964,21 +844,6 @@
       <c r="F12">
         <v>0.6784653827112876</v>
       </c>
-      <c r="G12">
-        <v>-1.492045776016987</v>
-      </c>
-      <c r="H12">
-        <v>0.5328331032984935</v>
-      </c>
-      <c r="I12">
-        <v>0.5331381419179237</v>
-      </c>
-      <c r="J12">
-        <v>-0.6906671935432558</v>
-      </c>
-      <c r="K12">
-        <v>-0.1454884788767927</v>
-      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -1005,15 +870,6 @@
       <c r="H13">
         <v>-0.8706694263484126</v>
       </c>
-      <c r="I13">
-        <v>-0.3254907116819495</v>
-      </c>
-      <c r="J13">
-        <v>0.3986184646325498</v>
-      </c>
-      <c r="K13">
-        <v>-0.5433959610992062</v>
-      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -1034,21 +890,6 @@
       <c r="F14">
         <v>-0.8776110010623258</v>
       </c>
-      <c r="G14">
-        <v>-0.3324322863958628</v>
-      </c>
-      <c r="H14">
-        <v>0.3916768899186366</v>
-      </c>
-      <c r="I14">
-        <v>-0.5503375358131194</v>
-      </c>
-      <c r="J14">
-        <v>-0.6781918938451724</v>
-      </c>
-      <c r="K14">
-        <v>-0.6334768497741322</v>
-      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -1075,15 +916,6 @@
       <c r="H15">
         <v>-0.6214046094701899</v>
       </c>
-      <c r="I15">
-        <v>-0.5766895653991497</v>
-      </c>
-      <c r="J15">
-        <v>0.3688066194871595</v>
-      </c>
-      <c r="K15">
-        <v>-0.2519439660638767</v>
-      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -1104,21 +936,6 @@
       <c r="F16">
         <v>-0.7269219823456481</v>
       </c>
-      <c r="G16">
-        <v>-0.6822069382746079</v>
-      </c>
-      <c r="H16">
-        <v>0.2632892466117013</v>
-      </c>
-      <c r="I16">
-        <v>-0.3574613389393349</v>
-      </c>
-      <c r="J16">
-        <v>-0.5384600277786873</v>
-      </c>
-      <c r="K16">
-        <v>-0.04017257782209499</v>
-      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
@@ -1145,15 +962,6 @@
       <c r="H17">
         <v>-0.2927911794549801</v>
       </c>
-      <c r="I17">
-        <v>0.2054962705016123</v>
-      </c>
-      <c r="J17">
-        <v>-0.7945654049727153</v>
-      </c>
-      <c r="K17">
-        <v>-0.06158873404629622</v>
-      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
@@ -1186,9 +994,6 @@
       <c r="J18">
         <v>0.2728464174021086</v>
       </c>
-      <c r="K18">
-        <v>0.02303654731320731</v>
-      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
@@ -1215,15 +1020,6 @@
       <c r="H19">
         <v>0.2593359516040893</v>
       </c>
-      <c r="I19">
-        <v>0.009526081515187967</v>
-      </c>
-      <c r="J19">
-        <v>-0.4810839617625248</v>
-      </c>
-      <c r="K19">
-        <v>-0.4047470052474069</v>
-      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
@@ -1256,9 +1052,6 @@
       <c r="J20">
         <v>0.3595691896148054</v>
       </c>
-      <c r="K20">
-        <v>0.168293349197063</v>
-      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
@@ -1285,15 +1078,6 @@
       <c r="H21">
         <v>0.4847579003942314</v>
       </c>
-      <c r="I21">
-        <v>0.293482059976489</v>
-      </c>
-      <c r="J21">
-        <v>0.005628179185339255</v>
-      </c>
-      <c r="K21">
-        <v>0.8978123199304096</v>
-      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
@@ -1326,9 +1110,6 @@
       <c r="J22">
         <v>-0.1724374078575295</v>
       </c>
-      <c r="K22">
-        <v>2.045917969313209</v>
-      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -1358,12 +1139,6 @@
       <c r="I23">
         <v>-0.1519263646769636</v>
       </c>
-      <c r="J23">
-        <v>2.066429012493774</v>
-      </c>
-      <c r="K23">
-        <v>7.797473145700781</v>
-      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
@@ -1390,15 +1165,6 @@
       <c r="H24">
         <v>-0.193090193231274</v>
       </c>
-      <c r="I24">
-        <v>2.025265183939464</v>
-      </c>
-      <c r="J24">
-        <v>7.756309317146471</v>
-      </c>
-      <c r="K24">
-        <v>-4.140068527788461</v>
-      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
@@ -1466,9 +1232,6 @@
       <c r="J26">
         <v>0.7845085716113679</v>
       </c>
-      <c r="K26">
-        <v>1.78685138562497</v>
-      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
@@ -1498,12 +1261,6 @@
       <c r="I27">
         <v>0.7805465271537924</v>
       </c>
-      <c r="J27">
-        <v>1.782889341167394</v>
-      </c>
-      <c r="K27">
-        <v>-1.836796412571299</v>
-      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
@@ -1530,15 +1287,6 @@
       <c r="H28">
         <v>0.7424637650696713</v>
       </c>
-      <c r="I28">
-        <v>1.744806579083273</v>
-      </c>
-      <c r="J28">
-        <v>-1.87487917465542</v>
-      </c>
-      <c r="K28">
-        <v>-1.555883901694814</v>
-      </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
@@ -1606,9 +1354,6 @@
       <c r="J30">
         <v>0.9110480783002558</v>
       </c>
-      <c r="K30">
-        <v>-1.413911231055208</v>
-      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
@@ -1638,12 +1383,6 @@
       <c r="I31">
         <v>0.8537604004047534</v>
       </c>
-      <c r="J31">
-        <v>-1.47119890895071</v>
-      </c>
-      <c r="K31">
-        <v>-0.4159398956771542</v>
-      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
@@ -1670,15 +1409,6 @@
       <c r="H32">
         <v>0.6579099395236218</v>
       </c>
-      <c r="I32">
-        <v>-1.667049369831842</v>
-      </c>
-      <c r="J32">
-        <v>-0.611790356558286</v>
-      </c>
-      <c r="K32">
-        <v>-0.3935002837000762</v>
-      </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
@@ -1746,9 +1476,6 @@
       <c r="J34">
         <v>0.442772697191267</v>
       </c>
-      <c r="K34">
-        <v>0.8594960153664678</v>
-      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
@@ -1778,12 +1505,6 @@
       <c r="I35">
         <v>0.3367131462644118</v>
       </c>
-      <c r="J35">
-        <v>0.7534364644396125</v>
-      </c>
-      <c r="K35">
-        <v>-0.8313463317717158</v>
-      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
@@ -1810,15 +1531,6 @@
       <c r="H36">
         <v>0.1720425310909911</v>
       </c>
-      <c r="I36">
-        <v>0.5887658492661919</v>
-      </c>
-      <c r="J36">
-        <v>-0.9960169469451364</v>
-      </c>
-      <c r="K36">
-        <v>-0.04879898327473942</v>
-      </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
@@ -1886,9 +1598,6 @@
       <c r="J38">
         <v>0.3130645416578807</v>
       </c>
-      <c r="K38">
-        <v>0.02451986800082353</v>
-      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
@@ -1918,12 +1627,6 @@
       <c r="I39">
         <v>0.193702918152997</v>
       </c>
-      <c r="J39">
-        <v>-0.09484175550406024</v>
-      </c>
-      <c r="K39">
-        <v>-0.1043830804051818</v>
-      </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
@@ -1950,15 +1653,6 @@
       <c r="H40">
         <v>0.4377121075193176</v>
       </c>
-      <c r="I40">
-        <v>0.1491674338622604</v>
-      </c>
-      <c r="J40">
-        <v>0.1396261089611388</v>
-      </c>
-      <c r="K40">
-        <v>-0.8797011412147235</v>
-      </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
@@ -2026,9 +1720,6 @@
       <c r="J42">
         <v>-0.7298902119510415</v>
       </c>
-      <c r="K42">
-        <v>0.8090800184609777</v>
-      </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
@@ -2058,12 +1749,6 @@
       <c r="I43">
         <v>-0.04889632809946531</v>
       </c>
-      <c r="J43">
-        <v>1.490073902312554</v>
-      </c>
-      <c r="K43">
-        <v>0.5380735621110603</v>
-      </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
@@ -2089,12 +1774,6 @@
       </c>
       <c r="H44">
         <v>-0.6520111466328729</v>
-      </c>
-      <c r="I44">
-        <v>0.8869590837791463</v>
-      </c>
-      <c r="J44">
-        <v>-0.06504125642234732</v>
       </c>
     </row>
     <row r="45" spans="1:11">
